--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -21574,7 +21574,7 @@
         <v>0.03</v>
       </c>
       <c r="C604" t="n">
-        <v>0.4111</v>
+        <v>0.355</v>
       </c>
       <c r="D604" t="n">
         <v>0.715</v>
@@ -21606,34 +21606,34 @@
         <v>44615</v>
       </c>
       <c r="B605" t="n">
-        <v>0.0254</v>
+        <v>0.028</v>
       </c>
       <c r="C605" t="n">
-        <v>0.3857</v>
+        <v>0.355</v>
       </c>
       <c r="D605" t="n">
-        <v>0.7608</v>
+        <v>0.733</v>
       </c>
       <c r="E605" t="n">
-        <v>1.1866</v>
+        <v>1.15</v>
       </c>
       <c r="F605" t="n">
-        <v>1.5796</v>
+        <v>1.6056</v>
       </c>
       <c r="G605" t="n">
-        <v>1.7652</v>
+        <v>1.787</v>
       </c>
       <c r="H605" t="n">
-        <v>1.8766</v>
+        <v>1.91</v>
       </c>
       <c r="I605" t="n">
-        <v>1.9581</v>
+        <v>1.9899</v>
       </c>
       <c r="J605" t="n">
-        <v>1.969</v>
+        <v>1.998</v>
       </c>
       <c r="K605" t="n">
-        <v>2.278</v>
+        <v>2.302</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K605"/>
+  <dimension ref="A1:K606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21636,6 +21636,41 @@
         <v>2.302</v>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B606" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="C606" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="E606" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="F606" t="n">
+        <v>1.5777</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1.7573</v>
+      </c>
+      <c r="H606" t="n">
+        <v>1.8651</v>
+      </c>
+      <c r="I606" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="J606" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K606" t="n">
+        <v>2.283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K606"/>
+  <dimension ref="A1:K607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21671,6 +21671,41 @@
         <v>2.283</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B607" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="C607" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E607" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1.5697</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1.7607</v>
+      </c>
+      <c r="H607" t="n">
+        <v>1.8701</v>
+      </c>
+      <c r="I607" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="J607" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K607" t="n">
+        <v>2.285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K607"/>
+  <dimension ref="A1:K609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21706,6 +21706,76 @@
         <v>2.285</v>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>44619</v>
+      </c>
+      <c r="B608" t="n">
+        <v>0.0684</v>
+      </c>
+      <c r="C608" t="n">
+        <v>0.3349</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0.6867</v>
+      </c>
+      <c r="E608" t="n">
+        <v>1.1426</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1.4881</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1.6817</v>
+      </c>
+      <c r="H608" t="n">
+        <v>1.7881</v>
+      </c>
+      <c r="I608" t="n">
+        <v>1.8798</v>
+      </c>
+      <c r="J608" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="K608" t="n">
+        <v>2.218</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B609" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="C609" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="E609" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1.4363</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="H609" t="n">
+        <v>1.7129</v>
+      </c>
+      <c r="I609" t="n">
+        <v>1.8034</v>
+      </c>
+      <c r="J609" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="K609" t="n">
+        <v>2.159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K609"/>
+  <dimension ref="A1:K610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21776,6 +21776,41 @@
         <v>2.159</v>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B610" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="C610" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E610" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F610" t="n">
+        <v>1.3327</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1.4864</v>
+      </c>
+      <c r="H610" t="n">
+        <v>1.5697</v>
+      </c>
+      <c r="I610" t="n">
+        <v>1.6683</v>
+      </c>
+      <c r="J610" t="n">
+        <v>1.716</v>
+      </c>
+      <c r="K610" t="n">
+        <v>2.109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K610"/>
+  <dimension ref="A1:K611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21811,6 +21811,41 @@
         <v>2.109</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B611" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="C611" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1.5139</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1.6767</v>
+      </c>
+      <c r="H611" t="n">
+        <v>1.7568</v>
+      </c>
+      <c r="I611" t="n">
+        <v>1.8451</v>
+      </c>
+      <c r="J611" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K611" t="n">
+        <v>2.254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K611"/>
+  <dimension ref="A1:K612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21846,6 +21846,41 @@
         <v>2.254</v>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B612" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="C612" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F612" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1.6769</v>
+      </c>
+      <c r="H612" t="n">
+        <v>1.7306</v>
+      </c>
+      <c r="I612" t="n">
+        <v>1.8057</v>
+      </c>
+      <c r="J612" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K612" t="n">
+        <v>2.226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K612"/>
+  <dimension ref="A1:K613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21881,6 +21881,41 @@
         <v>2.226</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B613" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="C613" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="F613" t="n">
+        <v>1.4899</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1.6199</v>
+      </c>
+      <c r="H613" t="n">
+        <v>1.647</v>
+      </c>
+      <c r="I613" t="n">
+        <v>1.7081</v>
+      </c>
+      <c r="J613" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K613" t="n">
+        <v>2.162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K613"/>
+  <dimension ref="A1:K615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21916,6 +21916,76 @@
         <v>2.162</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B614" t="n">
+        <v>0.2028</v>
+      </c>
+      <c r="C614" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0.6484</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1.0497</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1.4277</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1.5462</v>
+      </c>
+      <c r="H614" t="n">
+        <v>1.5673</v>
+      </c>
+      <c r="I614" t="n">
+        <v>1.6384</v>
+      </c>
+      <c r="J614" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="K614" t="n">
+        <v>2.124</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B615" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1.5563</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="H615" t="n">
+        <v>1.7024</v>
+      </c>
+      <c r="I615" t="n">
+        <v>1.7567</v>
+      </c>
+      <c r="J615" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="K615" t="n">
+        <v>2.184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K615"/>
+  <dimension ref="A1:K616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21986,6 +21986,41 @@
         <v>2.184</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B616" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="C616" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1.6008</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1.7436</v>
+      </c>
+      <c r="H616" t="n">
+        <v>1.7761</v>
+      </c>
+      <c r="I616" t="n">
+        <v>1.8282</v>
+      </c>
+      <c r="J616" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K616" t="n">
+        <v>2.219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K616"/>
+  <dimension ref="A1:K617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22021,6 +22021,41 @@
         <v>2.219</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B617" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1.6757</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1.8495</v>
+      </c>
+      <c r="H617" t="n">
+        <v>1.8799</v>
+      </c>
+      <c r="I617" t="n">
+        <v>1.9339</v>
+      </c>
+      <c r="J617" t="n">
+        <v>1.951</v>
+      </c>
+      <c r="K617" t="n">
+        <v>2.331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K617"/>
+  <dimension ref="A1:K618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22056,6 +22056,41 @@
         <v>2.331</v>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B618" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="C618" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1.7024</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1.8818</v>
+      </c>
+      <c r="H618" t="n">
+        <v>1.9246</v>
+      </c>
+      <c r="I618" t="n">
+        <v>1.9883</v>
+      </c>
+      <c r="J618" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="K618" t="n">
+        <v>2.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K618"/>
+  <dimension ref="A1:K619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22091,6 +22091,41 @@
         <v>2.373</v>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B619" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="C619" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1.168</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1.9223</v>
+      </c>
+      <c r="H619" t="n">
+        <v>1.9496</v>
+      </c>
+      <c r="I619" t="n">
+        <v>2.0006</v>
+      </c>
+      <c r="J619" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="K619" t="n">
+        <v>2.354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K619"/>
+  <dimension ref="A1:K621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22126,6 +22126,76 @@
         <v>2.354</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B620" t="n">
+        <v>0.1927</v>
+      </c>
+      <c r="C620" t="n">
+        <v>0.3856</v>
+      </c>
+      <c r="D620" t="n">
+        <v>0.7556</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1.1603</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1.7868</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1.9602</v>
+      </c>
+      <c r="H620" t="n">
+        <v>2.0012</v>
+      </c>
+      <c r="I620" t="n">
+        <v>2.0516</v>
+      </c>
+      <c r="J620" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="K620" t="n">
+        <v>2.379</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B621" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="C621" t="n">
+        <v>0.4619</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0.8451</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="G621" t="n">
+        <v>2.0522</v>
+      </c>
+      <c r="H621" t="n">
+        <v>2.0966</v>
+      </c>
+      <c r="I621" t="n">
+        <v>2.1544</v>
+      </c>
+      <c r="J621" t="n">
+        <v>2.142</v>
+      </c>
+      <c r="K621" t="n">
+        <v>2.481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K621"/>
+  <dimension ref="A1:K622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22169,10 +22169,10 @@
         <v>0.218</v>
       </c>
       <c r="C621" t="n">
-        <v>0.4619</v>
+        <v>0.424</v>
       </c>
       <c r="D621" t="n">
-        <v>0.8451</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="E621" t="n">
         <v>1.227</v>
@@ -22194,6 +22194,41 @@
       </c>
       <c r="K621" t="n">
         <v>2.481</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B622" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1.212</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1.8511</v>
+      </c>
+      <c r="G622" t="n">
+        <v>2.0471</v>
+      </c>
+      <c r="H622" t="n">
+        <v>2.1068</v>
+      </c>
+      <c r="I622" t="n">
+        <v>2.1618</v>
+      </c>
+      <c r="J622" t="n">
+        <v>2.149</v>
+      </c>
+      <c r="K622" t="n">
+        <v>2.484</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K622"/>
+  <dimension ref="A1:K623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22231,6 +22231,41 @@
         <v>2.484</v>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B623" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1.9482</v>
+      </c>
+      <c r="G623" t="n">
+        <v>2.1507</v>
+      </c>
+      <c r="H623" t="n">
+        <v>2.1877</v>
+      </c>
+      <c r="I623" t="n">
+        <v>2.226</v>
+      </c>
+      <c r="J623" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="K623" t="n">
+        <v>2.463</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K623"/>
+  <dimension ref="A1:K624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22266,6 +22266,41 @@
         <v>2.463</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B624" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C624" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1.9159</v>
+      </c>
+      <c r="G624" t="n">
+        <v>2.1156</v>
+      </c>
+      <c r="H624" t="n">
+        <v>2.1424</v>
+      </c>
+      <c r="I624" t="n">
+        <v>2.1879</v>
+      </c>
+      <c r="J624" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="K624" t="n">
+        <v>2.461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K624"/>
+  <dimension ref="A1:K625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22301,6 +22301,41 @@
         <v>2.461</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B625" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="C625" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1.9423</v>
+      </c>
+      <c r="G625" t="n">
+        <v>2.1439</v>
+      </c>
+      <c r="H625" t="n">
+        <v>2.1461</v>
+      </c>
+      <c r="I625" t="n">
+        <v>2.1796</v>
+      </c>
+      <c r="J625" t="n">
+        <v>2.153</v>
+      </c>
+      <c r="K625" t="n">
+        <v>2.421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K625"/>
+  <dimension ref="A1:K627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22336,6 +22336,76 @@
         <v>2.421</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B626" t="n">
+        <v>0.2231</v>
+      </c>
+      <c r="C626" t="n">
+        <v>0.4085</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0.8041</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1.2245</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1.9423</v>
+      </c>
+      <c r="G626" t="n">
+        <v>2.1439</v>
+      </c>
+      <c r="H626" t="n">
+        <v>2.1461</v>
+      </c>
+      <c r="I626" t="n">
+        <v>2.1796</v>
+      </c>
+      <c r="J626" t="n">
+        <v>2.153</v>
+      </c>
+      <c r="K626" t="n">
+        <v>2.421</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B627" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="C627" t="n">
+        <v>0.5661</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0.9806</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1.281</v>
+      </c>
+      <c r="F627" t="n">
+        <v>2.1174</v>
+      </c>
+      <c r="G627" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H627" t="n">
+        <v>2.3243</v>
+      </c>
+      <c r="I627" t="n">
+        <v>2.3458</v>
+      </c>
+      <c r="J627" t="n">
+        <v>2.297</v>
+      </c>
+      <c r="K627" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K627"/>
+  <dimension ref="A1:K628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22379,10 +22379,10 @@
         <v>0.213</v>
       </c>
       <c r="C627" t="n">
-        <v>0.5661</v>
+        <v>0.492</v>
       </c>
       <c r="D627" t="n">
-        <v>0.9806</v>
+        <v>0.911</v>
       </c>
       <c r="E627" t="n">
         <v>1.281</v>
@@ -22404,6 +22404,41 @@
       </c>
       <c r="K627" t="n">
         <v>2.52</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B628" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="C628" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2.1662</v>
+      </c>
+      <c r="G628" t="n">
+        <v>2.384</v>
+      </c>
+      <c r="H628" t="n">
+        <v>2.3996</v>
+      </c>
+      <c r="I628" t="n">
+        <v>2.4261</v>
+      </c>
+      <c r="J628" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="K628" t="n">
+        <v>2.603</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K628"/>
+  <dimension ref="A1:K629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22441,6 +22441,41 @@
         <v>2.603</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B629" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="C629" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="D629" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="F629" t="n">
+        <v>2.0982</v>
+      </c>
+      <c r="G629" t="n">
+        <v>2.3072</v>
+      </c>
+      <c r="H629" t="n">
+        <v>2.3145</v>
+      </c>
+      <c r="I629" t="n">
+        <v>2.3412</v>
+      </c>
+      <c r="J629" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K629" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K629"/>
+  <dimension ref="A1:K630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22476,6 +22476,41 @@
         <v>2.48</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B630" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C630" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="F630" t="n">
+        <v>2.1346</v>
+      </c>
+      <c r="G630" t="n">
+        <v>2.3685</v>
+      </c>
+      <c r="H630" t="n">
+        <v>2.3985</v>
+      </c>
+      <c r="I630" t="n">
+        <v>2.4215</v>
+      </c>
+      <c r="J630" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K630" t="n">
+        <v>2.532</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K630"/>
+  <dimension ref="A1:K631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22511,6 +22511,41 @@
         <v>2.532</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B631" t="n">
+        <v>0.1775</v>
+      </c>
+      <c r="C631" t="n">
+        <v>0.5355</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0.9882</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1.6705</v>
+      </c>
+      <c r="F631" t="n">
+        <v>2.2843</v>
+      </c>
+      <c r="G631" t="n">
+        <v>2.5203</v>
+      </c>
+      <c r="H631" t="n">
+        <v>2.5612</v>
+      </c>
+      <c r="I631" t="n">
+        <v>2.5686</v>
+      </c>
+      <c r="J631" t="n">
+        <v>2.488</v>
+      </c>
+      <c r="K631" t="n">
+        <v>2.602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -22481,7 +22481,7 @@
         <v>44644</v>
       </c>
       <c r="B630" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="C630" t="n">
         <v>0.52</v>
@@ -22516,16 +22516,16 @@
         <v>44645</v>
       </c>
       <c r="B631" t="n">
-        <v>0.1775</v>
+        <v>0.177</v>
       </c>
       <c r="C631" t="n">
-        <v>0.5355</v>
+        <v>0.538</v>
       </c>
       <c r="D631" t="n">
-        <v>0.9882</v>
+        <v>0.986</v>
       </c>
       <c r="E631" t="n">
-        <v>1.6705</v>
+        <v>1.66</v>
       </c>
       <c r="F631" t="n">
         <v>2.2843</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K631"/>
+  <dimension ref="A1:K633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22546,6 +22546,76 @@
         <v>2.602</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B632" t="n">
+        <v>0.1698</v>
+      </c>
+      <c r="C632" t="n">
+        <v>0.5228</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0.9831</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1.6497</v>
+      </c>
+      <c r="F632" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="G632" t="n">
+        <v>2.5147</v>
+      </c>
+      <c r="H632" t="n">
+        <v>2.5508</v>
+      </c>
+      <c r="I632" t="n">
+        <v>2.5534</v>
+      </c>
+      <c r="J632" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="K632" t="n">
+        <v>2.589</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B633" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0.6449</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="F633" t="n">
+        <v>2.3361</v>
+      </c>
+      <c r="G633" t="n">
+        <v>2.5712</v>
+      </c>
+      <c r="H633" t="n">
+        <v>2.5633</v>
+      </c>
+      <c r="I633" t="n">
+        <v>2.5562</v>
+      </c>
+      <c r="J633" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="K633" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K633"/>
+  <dimension ref="A1:K634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22589,7 +22589,7 @@
         <v>0.177</v>
       </c>
       <c r="C633" t="n">
-        <v>0.6449</v>
+        <v>0.556</v>
       </c>
       <c r="D633" t="n">
         <v>0.998</v>
@@ -22614,6 +22614,41 @@
       </c>
       <c r="K633" t="n">
         <v>2.55</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B634" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="F634" t="n">
+        <v>2.3727</v>
+      </c>
+      <c r="G634" t="n">
+        <v>2.5524</v>
+      </c>
+      <c r="H634" t="n">
+        <v>2.5017</v>
+      </c>
+      <c r="I634" t="n">
+        <v>2.488</v>
+      </c>
+      <c r="J634" t="n">
+        <v>2.398</v>
+      </c>
+      <c r="K634" t="n">
+        <v>2.503</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K634"/>
+  <dimension ref="A1:K635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22651,6 +22651,41 @@
         <v>2.503</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1.642</v>
+      </c>
+      <c r="F635" t="n">
+        <v>2.3123</v>
+      </c>
+      <c r="G635" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="H635" t="n">
+        <v>2.4416</v>
+      </c>
+      <c r="I635" t="n">
+        <v>2.4336</v>
+      </c>
+      <c r="J635" t="n">
+        <v>2.358</v>
+      </c>
+      <c r="K635" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K635"/>
+  <dimension ref="A1:K636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22686,6 +22686,41 @@
         <v>2.48</v>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B636" t="n">
+        <v>0.1673</v>
+      </c>
+      <c r="C636" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1.608</v>
+      </c>
+      <c r="F636" t="n">
+        <v>2.3346</v>
+      </c>
+      <c r="G636" t="n">
+        <v>2.5146</v>
+      </c>
+      <c r="H636" t="n">
+        <v>2.4649</v>
+      </c>
+      <c r="I636" t="n">
+        <v>2.4385</v>
+      </c>
+      <c r="J636" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="K636" t="n">
+        <v>2.453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K636"/>
+  <dimension ref="A1:K637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22691,7 +22691,7 @@
         <v>44651</v>
       </c>
       <c r="B636" t="n">
-        <v>0.1673</v>
+        <v>0.147</v>
       </c>
       <c r="C636" t="n">
         <v>0.52</v>
@@ -22719,6 +22719,41 @@
       </c>
       <c r="K636" t="n">
         <v>2.453</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1.686</v>
+      </c>
+      <c r="F637" t="n">
+        <v>2.4625</v>
+      </c>
+      <c r="G637" t="n">
+        <v>2.6375</v>
+      </c>
+      <c r="H637" t="n">
+        <v>2.5654</v>
+      </c>
+      <c r="I637" t="n">
+        <v>2.5073</v>
+      </c>
+      <c r="J637" t="n">
+        <v>2.389</v>
+      </c>
+      <c r="K637" t="n">
+        <v>2.435</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K637"/>
+  <dimension ref="A1:K639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22756,6 +22756,76 @@
         <v>2.435</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0.2079</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.5253</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1.1086</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1.7377</v>
+      </c>
+      <c r="F638" t="n">
+        <v>2.4909</v>
+      </c>
+      <c r="G638" t="n">
+        <v>2.6685</v>
+      </c>
+      <c r="H638" t="n">
+        <v>2.5923</v>
+      </c>
+      <c r="I638" t="n">
+        <v>2.5246</v>
+      </c>
+      <c r="J638" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="K638" t="n">
+        <v>2.445</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B639" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.7161</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1.1677</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="F639" t="n">
+        <v>2.4181</v>
+      </c>
+      <c r="G639" t="n">
+        <v>2.5932</v>
+      </c>
+      <c r="H639" t="n">
+        <v>2.5453</v>
+      </c>
+      <c r="I639" t="n">
+        <v>2.4975</v>
+      </c>
+      <c r="J639" t="n">
+        <v>2.393</v>
+      </c>
+      <c r="K639" t="n">
+        <v>2.456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K639"/>
+  <dimension ref="A1:K640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22799,10 +22799,10 @@
         <v>0.172</v>
       </c>
       <c r="C639" t="n">
-        <v>0.7161</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D639" t="n">
-        <v>1.1677</v>
+        <v>1.078</v>
       </c>
       <c r="E639" t="n">
         <v>1.699</v>
@@ -22824,6 +22824,41 @@
       </c>
       <c r="K639" t="n">
         <v>2.456</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F640" t="n">
+        <v>2.5241</v>
+      </c>
+      <c r="G640" t="n">
+        <v>2.7097</v>
+      </c>
+      <c r="H640" t="n">
+        <v>2.704</v>
+      </c>
+      <c r="I640" t="n">
+        <v>2.6673</v>
+      </c>
+      <c r="J640" t="n">
+        <v>2.554</v>
+      </c>
+      <c r="K640" t="n">
+        <v>2.582</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K640"/>
+  <dimension ref="A1:K641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22861,6 +22861,41 @@
         <v>2.582</v>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0.1622</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.6855</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1.1446</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1.7505</v>
+      </c>
+      <c r="F641" t="n">
+        <v>2.4612</v>
+      </c>
+      <c r="G641" t="n">
+        <v>2.6511</v>
+      </c>
+      <c r="H641" t="n">
+        <v>2.6786</v>
+      </c>
+      <c r="I641" t="n">
+        <v>2.6811</v>
+      </c>
+      <c r="J641" t="n">
+        <v>2.596</v>
+      </c>
+      <c r="K641" t="n">
+        <v>2.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K641"/>
+  <dimension ref="A1:K642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22866,34 +22866,69 @@
         <v>44657</v>
       </c>
       <c r="B641" t="n">
-        <v>0.1622</v>
+        <v>0.17</v>
       </c>
       <c r="C641" t="n">
-        <v>0.6855</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D641" t="n">
-        <v>1.1446</v>
+        <v>1.142</v>
       </c>
       <c r="E641" t="n">
-        <v>1.7505</v>
+        <v>1.763</v>
       </c>
       <c r="F641" t="n">
-        <v>2.4612</v>
+        <v>2.4837</v>
       </c>
       <c r="G641" t="n">
-        <v>2.6511</v>
+        <v>2.6625</v>
       </c>
       <c r="H641" t="n">
-        <v>2.6786</v>
+        <v>2.6888</v>
       </c>
       <c r="I641" t="n">
-        <v>2.6811</v>
+        <v>2.6861</v>
       </c>
       <c r="J641" t="n">
-        <v>2.596</v>
+        <v>2.598</v>
       </c>
       <c r="K641" t="n">
-        <v>2.622</v>
+        <v>2.623</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="F642" t="n">
+        <v>2.4677</v>
+      </c>
+      <c r="G642" t="n">
+        <v>2.6661</v>
+      </c>
+      <c r="H642" t="n">
+        <v>2.716</v>
+      </c>
+      <c r="I642" t="n">
+        <v>2.7401</v>
+      </c>
+      <c r="J642" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="K642" t="n">
+        <v>2.685</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K642"/>
+  <dimension ref="A1:K643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22726,16 +22726,16 @@
         <v>44652</v>
       </c>
       <c r="B637" t="n">
-        <v>0.177</v>
+        <v>0.18</v>
       </c>
       <c r="C637" t="n">
-        <v>0.528</v>
+        <v>0.5279</v>
       </c>
       <c r="D637" t="n">
-        <v>1.068</v>
+        <v>1.0676</v>
       </c>
       <c r="E637" t="n">
-        <v>1.686</v>
+        <v>1.6935</v>
       </c>
       <c r="F637" t="n">
         <v>2.4625</v>
@@ -22929,6 +22929,41 @@
       </c>
       <c r="K642" t="n">
         <v>2.685</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0.2434</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.7008</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1.1649</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1.7736</v>
+      </c>
+      <c r="F643" t="n">
+        <v>2.5156</v>
+      </c>
+      <c r="G643" t="n">
+        <v>2.731</v>
+      </c>
+      <c r="H643" t="n">
+        <v>2.7555</v>
+      </c>
+      <c r="I643" t="n">
+        <v>2.7769</v>
+      </c>
+      <c r="J643" t="n">
+        <v>2.704</v>
+      </c>
+      <c r="K643" t="n">
+        <v>2.721</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -22936,16 +22936,16 @@
         <v>44659</v>
       </c>
       <c r="B643" t="n">
-        <v>0.2434</v>
+        <v>0.233</v>
       </c>
       <c r="C643" t="n">
-        <v>0.7008</v>
+        <v>0.698</v>
       </c>
       <c r="D643" t="n">
-        <v>1.1649</v>
+        <v>1.155</v>
       </c>
       <c r="E643" t="n">
-        <v>1.7736</v>
+        <v>1.768</v>
       </c>
       <c r="F643" t="n">
         <v>2.5156</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K643"/>
+  <dimension ref="A1:K645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22966,6 +22966,76 @@
         <v>2.721</v>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.6982</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1.1598</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1.7944</v>
+      </c>
+      <c r="F644" t="n">
+        <v>2.5444</v>
+      </c>
+      <c r="G644" t="n">
+        <v>2.7538</v>
+      </c>
+      <c r="H644" t="n">
+        <v>2.7777</v>
+      </c>
+      <c r="I644" t="n">
+        <v>2.797</v>
+      </c>
+      <c r="J644" t="n">
+        <v>2.723</v>
+      </c>
+      <c r="K644" t="n">
+        <v>2.739</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1.2831</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F645" t="n">
+        <v>2.4996</v>
+      </c>
+      <c r="G645" t="n">
+        <v>2.7262</v>
+      </c>
+      <c r="H645" t="n">
+        <v>2.7846</v>
+      </c>
+      <c r="I645" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J645" t="n">
+        <v>2.774</v>
+      </c>
+      <c r="K645" t="n">
+        <v>2.805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K645"/>
+  <dimension ref="A1:K646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23012,7 +23012,7 @@
         <v>0.706</v>
       </c>
       <c r="D645" t="n">
-        <v>1.2831</v>
+        <v>1.173</v>
       </c>
       <c r="E645" t="n">
         <v>1.784</v>
@@ -23034,6 +23034,41 @@
       </c>
       <c r="K645" t="n">
         <v>2.805</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B646" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.7848000000000001</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1.716</v>
+      </c>
+      <c r="F646" t="n">
+        <v>2.4054</v>
+      </c>
+      <c r="G646" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="H646" t="n">
+        <v>2.6961</v>
+      </c>
+      <c r="I646" t="n">
+        <v>2.752</v>
+      </c>
+      <c r="J646" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="K646" t="n">
+        <v>2.806</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K646"/>
+  <dimension ref="A1:K647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23044,7 +23044,7 @@
         <v>0.215</v>
       </c>
       <c r="C646" t="n">
-        <v>0.7848000000000001</v>
+        <v>0.759</v>
       </c>
       <c r="D646" t="n">
         <v>1.188</v>
@@ -23069,6 +23069,41 @@
       </c>
       <c r="K646" t="n">
         <v>2.806</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="F647" t="n">
+        <v>2.3645</v>
+      </c>
+      <c r="G647" t="n">
+        <v>2.5813</v>
+      </c>
+      <c r="H647" t="n">
+        <v>2.6605</v>
+      </c>
+      <c r="I647" t="n">
+        <v>2.7157</v>
+      </c>
+      <c r="J647" t="n">
+        <v>2.703</v>
+      </c>
+      <c r="K647" t="n">
+        <v>2.812</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K647"/>
+  <dimension ref="A1:K648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23106,6 +23106,41 @@
         <v>2.812</v>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F648" t="n">
+        <v>2.456</v>
+      </c>
+      <c r="G648" t="n">
+        <v>2.6824</v>
+      </c>
+      <c r="H648" t="n">
+        <v>2.7855</v>
+      </c>
+      <c r="I648" t="n">
+        <v>2.8411</v>
+      </c>
+      <c r="J648" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="K648" t="n">
+        <v>2.919</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K648"/>
+  <dimension ref="A1:K650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23141,6 +23141,76 @@
         <v>2.919</v>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0.4108</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1.2239</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1.7083</v>
+      </c>
+      <c r="F649" t="n">
+        <v>2.4849</v>
+      </c>
+      <c r="G649" t="n">
+        <v>2.7043</v>
+      </c>
+      <c r="H649" t="n">
+        <v>2.806</v>
+      </c>
+      <c r="I649" t="n">
+        <v>2.8588</v>
+      </c>
+      <c r="J649" t="n">
+        <v>2.847</v>
+      </c>
+      <c r="K649" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.8815</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F650" t="n">
+        <v>2.4459</v>
+      </c>
+      <c r="G650" t="n">
+        <v>2.6687</v>
+      </c>
+      <c r="H650" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="I650" t="n">
+        <v>2.8577</v>
+      </c>
+      <c r="J650" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="K650" t="n">
+        <v>2.946</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K650"/>
+  <dimension ref="A1:K651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23184,10 +23184,10 @@
         <v>0.37</v>
       </c>
       <c r="C650" t="n">
-        <v>0.8815</v>
+        <v>0.78</v>
       </c>
       <c r="D650" t="n">
-        <v>1.296</v>
+        <v>1.237</v>
       </c>
       <c r="E650" t="n">
         <v>1.768</v>
@@ -23209,6 +23209,41 @@
       </c>
       <c r="K650" t="n">
         <v>2.946</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1.828</v>
+      </c>
+      <c r="F651" t="n">
+        <v>2.5977</v>
+      </c>
+      <c r="G651" t="n">
+        <v>2.8226</v>
+      </c>
+      <c r="H651" t="n">
+        <v>2.9183</v>
+      </c>
+      <c r="I651" t="n">
+        <v>2.9599</v>
+      </c>
+      <c r="J651" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K651" t="n">
+        <v>2.993</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K651"/>
+  <dimension ref="A1:K652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23246,6 +23246,41 @@
         <v>2.993</v>
       </c>
     </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B652" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1.283</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="F652" t="n">
+        <v>2.5753</v>
+      </c>
+      <c r="G652" t="n">
+        <v>2.7815</v>
+      </c>
+      <c r="H652" t="n">
+        <v>2.8615</v>
+      </c>
+      <c r="I652" t="n">
+        <v>2.8797</v>
+      </c>
+      <c r="J652" t="n">
+        <v>2.834</v>
+      </c>
+      <c r="K652" t="n">
+        <v>2.874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K652"/>
+  <dimension ref="A1:K653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23281,6 +23281,41 @@
         <v>2.874</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0.5351</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1.311</v>
+      </c>
+      <c r="E653" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="F653" t="n">
+        <v>2.6739</v>
+      </c>
+      <c r="G653" t="n">
+        <v>2.8782</v>
+      </c>
+      <c r="H653" t="n">
+        <v>2.9637</v>
+      </c>
+      <c r="I653" t="n">
+        <v>2.968</v>
+      </c>
+      <c r="J653" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="K653" t="n">
+        <v>2.927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K653"/>
+  <dimension ref="A1:K654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23286,7 +23286,7 @@
         <v>44672</v>
       </c>
       <c r="B653" t="n">
-        <v>0.5351</v>
+        <v>0.342</v>
       </c>
       <c r="C653" t="n">
         <v>0.828</v>
@@ -23314,6 +23314,41 @@
       </c>
       <c r="K653" t="n">
         <v>2.927</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="C654" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1.332</v>
+      </c>
+      <c r="E654" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="F654" t="n">
+        <v>2.6777</v>
+      </c>
+      <c r="G654" t="n">
+        <v>2.865</v>
+      </c>
+      <c r="H654" t="n">
+        <v>2.9401</v>
+      </c>
+      <c r="I654" t="n">
+        <v>2.9519</v>
+      </c>
+      <c r="J654" t="n">
+        <v>2.905</v>
+      </c>
+      <c r="K654" t="n">
+        <v>2.951</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K654"/>
+  <dimension ref="A1:K656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23351,6 +23351,76 @@
         <v>2.951</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.5072</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0.8865</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1.3317</v>
+      </c>
+      <c r="E655" t="n">
+        <v>2.0848</v>
+      </c>
+      <c r="F655" t="n">
+        <v>2.6609</v>
+      </c>
+      <c r="G655" t="n">
+        <v>2.8539</v>
+      </c>
+      <c r="H655" t="n">
+        <v>2.9262</v>
+      </c>
+      <c r="I655" t="n">
+        <v>2.9391</v>
+      </c>
+      <c r="J655" t="n">
+        <v>2.887</v>
+      </c>
+      <c r="K655" t="n">
+        <v>2.938</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="C656" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1.4527</v>
+      </c>
+      <c r="E656" t="n">
+        <v>2.022</v>
+      </c>
+      <c r="F656" t="n">
+        <v>2.6215</v>
+      </c>
+      <c r="G656" t="n">
+        <v>2.807</v>
+      </c>
+      <c r="H656" t="n">
+        <v>2.8521</v>
+      </c>
+      <c r="I656" t="n">
+        <v>2.8653</v>
+      </c>
+      <c r="J656" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="K656" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K656"/>
+  <dimension ref="A1:K657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23397,7 +23397,7 @@
         <v>0.9375</v>
       </c>
       <c r="D656" t="n">
-        <v>1.4527</v>
+        <v>1.306</v>
       </c>
       <c r="E656" t="n">
         <v>2.022</v>
@@ -23419,6 +23419,41 @@
       </c>
       <c r="K656" t="n">
         <v>2.89</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1.3936</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="F657" t="n">
+        <v>2.5363</v>
+      </c>
+      <c r="G657" t="n">
+        <v>2.6579</v>
+      </c>
+      <c r="H657" t="n">
+        <v>2.7386</v>
+      </c>
+      <c r="I657" t="n">
+        <v>2.7665</v>
+      </c>
+      <c r="J657" t="n">
+        <v>2.738</v>
+      </c>
+      <c r="K657" t="n">
+        <v>2.835</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K657"/>
+  <dimension ref="A1:K658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23418,7 +23418,7 @@
         <v>2.818</v>
       </c>
       <c r="K656" t="n">
-        <v>2.89</v>
+        <v>2.886</v>
       </c>
     </row>
     <row r="657">
@@ -23432,7 +23432,7 @@
         <v>0.856</v>
       </c>
       <c r="D657" t="n">
-        <v>1.3936</v>
+        <v>1.391</v>
       </c>
       <c r="E657" t="n">
         <v>1.975</v>
@@ -23447,13 +23447,48 @@
         <v>2.7386</v>
       </c>
       <c r="I657" t="n">
-        <v>2.7665</v>
+        <v>2.7538</v>
       </c>
       <c r="J657" t="n">
-        <v>2.738</v>
+        <v>2.728</v>
       </c>
       <c r="K657" t="n">
         <v>2.835</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C658" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1.373</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="F658" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="G658" t="n">
+        <v>2.7463</v>
+      </c>
+      <c r="H658" t="n">
+        <v>2.8242</v>
+      </c>
+      <c r="I658" t="n">
+        <v>2.8567</v>
+      </c>
+      <c r="J658" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="K658" t="n">
+        <v>2.92</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K658"/>
+  <dimension ref="A1:K659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23394,7 +23394,7 @@
         <v>0.403</v>
       </c>
       <c r="C656" t="n">
-        <v>0.9375</v>
+        <v>0.83</v>
       </c>
       <c r="D656" t="n">
         <v>1.306</v>
@@ -23409,7 +23409,7 @@
         <v>2.807</v>
       </c>
       <c r="H656" t="n">
-        <v>2.8521</v>
+        <v>2.859</v>
       </c>
       <c r="I656" t="n">
         <v>2.8653</v>
@@ -23479,16 +23479,51 @@
         <v>2.7463</v>
       </c>
       <c r="H658" t="n">
-        <v>2.8242</v>
+        <v>2.8248</v>
       </c>
       <c r="I658" t="n">
-        <v>2.8567</v>
+        <v>2.8529</v>
       </c>
       <c r="J658" t="n">
         <v>2.826</v>
       </c>
       <c r="K658" t="n">
         <v>2.92</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="C659" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1.9879</v>
+      </c>
+      <c r="F659" t="n">
+        <v>2.6132</v>
+      </c>
+      <c r="G659" t="n">
+        <v>2.7714</v>
+      </c>
+      <c r="H659" t="n">
+        <v>2.8479</v>
+      </c>
+      <c r="I659" t="n">
+        <v>2.8722</v>
+      </c>
+      <c r="J659" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K659" t="n">
+        <v>2.894</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K659"/>
+  <dimension ref="A1:K660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23511,7 +23511,7 @@
         <v>2.6132</v>
       </c>
       <c r="G659" t="n">
-        <v>2.7714</v>
+        <v>2.7852</v>
       </c>
       <c r="H659" t="n">
         <v>2.8479</v>
@@ -23520,10 +23520,45 @@
         <v>2.8722</v>
       </c>
       <c r="J659" t="n">
-        <v>2.82</v>
+        <v>2.832</v>
       </c>
       <c r="K659" t="n">
         <v>2.894</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B660" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C660" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1.4139</v>
+      </c>
+      <c r="E660" t="n">
+        <v>2.058</v>
+      </c>
+      <c r="F660" t="n">
+        <v>2.7309</v>
+      </c>
+      <c r="G660" t="n">
+        <v>2.8943</v>
+      </c>
+      <c r="H660" t="n">
+        <v>2.9618</v>
+      </c>
+      <c r="I660" t="n">
+        <v>2.9846</v>
+      </c>
+      <c r="J660" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="K660" t="n">
+        <v>2.996</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -23476,7 +23476,7 @@
         <v>2.591</v>
       </c>
       <c r="G658" t="n">
-        <v>2.7463</v>
+        <v>2.7491</v>
       </c>
       <c r="H658" t="n">
         <v>2.8248</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -23488,7 +23488,7 @@
         <v>2.826</v>
       </c>
       <c r="K658" t="n">
-        <v>2.92</v>
+        <v>2.913</v>
       </c>
     </row>
     <row r="659">
@@ -23537,7 +23537,7 @@
         <v>0.841</v>
       </c>
       <c r="D660" t="n">
-        <v>1.4139</v>
+        <v>1.404</v>
       </c>
       <c r="E660" t="n">
         <v>2.058</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K660"/>
+  <dimension ref="A1:K662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23438,7 +23438,7 @@
         <v>1.975</v>
       </c>
       <c r="F657" t="n">
-        <v>2.5363</v>
+        <v>2.4815</v>
       </c>
       <c r="G657" t="n">
         <v>2.6579</v>
@@ -23559,6 +23559,76 @@
       </c>
       <c r="K660" t="n">
         <v>2.996</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B661" t="n">
+        <v>0.3905</v>
+      </c>
+      <c r="C661" t="n">
+        <v>0.8967000000000001</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1.4371</v>
+      </c>
+      <c r="E661" t="n">
+        <v>2.0973</v>
+      </c>
+      <c r="F661" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="G661" t="n">
+        <v>2.9054</v>
+      </c>
+      <c r="H661" t="n">
+        <v>2.9669</v>
+      </c>
+      <c r="I661" t="n">
+        <v>2.9846</v>
+      </c>
+      <c r="J661" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="K661" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="C662" t="n">
+        <v>0.9248</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="E662" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="F662" t="n">
+        <v>2.7311</v>
+      </c>
+      <c r="G662" t="n">
+        <v>2.9364</v>
+      </c>
+      <c r="H662" t="n">
+        <v>3.0096</v>
+      </c>
+      <c r="I662" t="n">
+        <v>3.0298</v>
+      </c>
+      <c r="J662" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="K662" t="n">
+        <v>3.029</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K662"/>
+  <dimension ref="A1:K663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23631,6 +23631,41 @@
         <v>3.029</v>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="C663" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="E663" t="n">
+        <v>2.115</v>
+      </c>
+      <c r="F663" t="n">
+        <v>2.7865</v>
+      </c>
+      <c r="G663" t="n">
+        <v>2.9731</v>
+      </c>
+      <c r="H663" t="n">
+        <v>3.0286</v>
+      </c>
+      <c r="I663" t="n">
+        <v>3.0449</v>
+      </c>
+      <c r="J663" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="K663" t="n">
+        <v>3.018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K663"/>
+  <dimension ref="A1:K664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23625,7 +23625,7 @@
         <v>3.0298</v>
       </c>
       <c r="J662" t="n">
-        <v>2.987</v>
+        <v>2.977</v>
       </c>
       <c r="K662" t="n">
         <v>3.029</v>
@@ -23648,13 +23648,13 @@
         <v>2.115</v>
       </c>
       <c r="F663" t="n">
-        <v>2.7865</v>
+        <v>2.7844</v>
       </c>
       <c r="G663" t="n">
         <v>2.9731</v>
       </c>
       <c r="H663" t="n">
-        <v>3.0286</v>
+        <v>3.0269</v>
       </c>
       <c r="I663" t="n">
         <v>3.0449</v>
@@ -23664,6 +23664,41 @@
       </c>
       <c r="K663" t="n">
         <v>3.018</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="C664" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="E664" t="n">
+        <v>2.0135</v>
+      </c>
+      <c r="F664" t="n">
+        <v>2.6482</v>
+      </c>
+      <c r="G664" t="n">
+        <v>2.8362</v>
+      </c>
+      <c r="H664" t="n">
+        <v>2.9177</v>
+      </c>
+      <c r="I664" t="n">
+        <v>2.9697</v>
+      </c>
+      <c r="J664" t="n">
+        <v>2.946</v>
+      </c>
+      <c r="K664" t="n">
+        <v>3.042</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K664"/>
+  <dimension ref="A1:K665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23701,6 +23701,41 @@
         <v>3.042</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0.5199</v>
+      </c>
+      <c r="C665" t="n">
+        <v>0.8255</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1.3601</v>
+      </c>
+      <c r="E665" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="F665" t="n">
+        <v>2.732</v>
+      </c>
+      <c r="G665" t="n">
+        <v>2.9288</v>
+      </c>
+      <c r="H665" t="n">
+        <v>3.0254</v>
+      </c>
+      <c r="I665" t="n">
+        <v>3.0802</v>
+      </c>
+      <c r="J665" t="n">
+        <v>3.052</v>
+      </c>
+      <c r="K665" t="n">
+        <v>3.137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K665"/>
+  <dimension ref="A1:K666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23736,6 +23736,41 @@
         <v>3.137</v>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0.4919</v>
+      </c>
+      <c r="C666" t="n">
+        <v>0.8585</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1.3779</v>
+      </c>
+      <c r="E666" t="n">
+        <v>2.0106</v>
+      </c>
+      <c r="F666" t="n">
+        <v>2.7349</v>
+      </c>
+      <c r="G666" t="n">
+        <v>2.9521</v>
+      </c>
+      <c r="H666" t="n">
+        <v>3.0791</v>
+      </c>
+      <c r="I666" t="n">
+        <v>3.1539</v>
+      </c>
+      <c r="J666" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="K666" t="n">
+        <v>3.238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K666"/>
+  <dimension ref="A1:K668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23771,6 +23771,76 @@
         <v>3.238</v>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0.5173</v>
+      </c>
+      <c r="C667" t="n">
+        <v>0.8431999999999999</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1.3651</v>
+      </c>
+      <c r="E667" t="n">
+        <v>2.0288</v>
+      </c>
+      <c r="F667" t="n">
+        <v>2.7431</v>
+      </c>
+      <c r="G667" t="n">
+        <v>2.9633</v>
+      </c>
+      <c r="H667" t="n">
+        <v>3.0842</v>
+      </c>
+      <c r="I667" t="n">
+        <v>3.1589</v>
+      </c>
+      <c r="J667" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="K667" t="n">
+        <v>3.241</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0.4995</v>
+      </c>
+      <c r="C668" t="n">
+        <v>0.9426</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1.4141</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1.9271</v>
+      </c>
+      <c r="F668" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="G668" t="n">
+        <v>2.8147</v>
+      </c>
+      <c r="H668" t="n">
+        <v>2.942</v>
+      </c>
+      <c r="I668" t="n">
+        <v>3.0326</v>
+      </c>
+      <c r="J668" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="K668" t="n">
+        <v>3.155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K668"/>
+  <dimension ref="A1:K669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23604,7 +23604,7 @@
         <v>0.385</v>
       </c>
       <c r="C662" t="n">
-        <v>0.9248</v>
+        <v>0.8</v>
       </c>
       <c r="D662" t="n">
         <v>1.406</v>
@@ -23616,10 +23616,10 @@
         <v>2.7311</v>
       </c>
       <c r="G662" t="n">
-        <v>2.9364</v>
+        <v>2.9281</v>
       </c>
       <c r="H662" t="n">
-        <v>3.0096</v>
+        <v>3.0028</v>
       </c>
       <c r="I662" t="n">
         <v>3.0298</v>
@@ -23651,7 +23651,7 @@
         <v>2.7844</v>
       </c>
       <c r="G663" t="n">
-        <v>2.9731</v>
+        <v>2.9703</v>
       </c>
       <c r="H663" t="n">
         <v>3.0269</v>
@@ -23660,7 +23660,7 @@
         <v>3.0449</v>
       </c>
       <c r="J663" t="n">
-        <v>2.975</v>
+        <v>2.979</v>
       </c>
       <c r="K663" t="n">
         <v>3.018</v>
@@ -23680,25 +23680,25 @@
         <v>1.437</v>
       </c>
       <c r="E664" t="n">
-        <v>2.0135</v>
+        <v>2.016</v>
       </c>
       <c r="F664" t="n">
-        <v>2.6482</v>
+        <v>2.6543</v>
       </c>
       <c r="G664" t="n">
         <v>2.8362</v>
       </c>
       <c r="H664" t="n">
-        <v>2.9177</v>
+        <v>2.9262</v>
       </c>
       <c r="I664" t="n">
-        <v>2.9697</v>
+        <v>2.9747</v>
       </c>
       <c r="J664" t="n">
         <v>2.946</v>
       </c>
       <c r="K664" t="n">
-        <v>3.042</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="665">
@@ -23706,34 +23706,34 @@
         <v>44686</v>
       </c>
       <c r="B665" t="n">
-        <v>0.5199</v>
+        <v>0.446</v>
       </c>
       <c r="C665" t="n">
-        <v>0.8255</v>
+        <v>0.851</v>
       </c>
       <c r="D665" t="n">
-        <v>1.3601</v>
+        <v>1.365</v>
       </c>
       <c r="E665" t="n">
-        <v>2.063</v>
+        <v>2.034</v>
       </c>
       <c r="F665" t="n">
-        <v>2.732</v>
+        <v>2.7116</v>
       </c>
       <c r="G665" t="n">
-        <v>2.9288</v>
+        <v>2.912</v>
       </c>
       <c r="H665" t="n">
-        <v>3.0254</v>
+        <v>3.0066</v>
       </c>
       <c r="I665" t="n">
-        <v>3.0802</v>
+        <v>3.0614</v>
       </c>
       <c r="J665" t="n">
-        <v>3.052</v>
+        <v>3.035</v>
       </c>
       <c r="K665" t="n">
-        <v>3.137</v>
+        <v>3.119</v>
       </c>
     </row>
     <row r="666">
@@ -23741,16 +23741,16 @@
         <v>44687</v>
       </c>
       <c r="B666" t="n">
-        <v>0.4919</v>
+        <v>0.489</v>
       </c>
       <c r="C666" t="n">
-        <v>0.8585</v>
+        <v>0.848</v>
       </c>
       <c r="D666" t="n">
-        <v>1.3779</v>
+        <v>1.36</v>
       </c>
       <c r="E666" t="n">
-        <v>2.0106</v>
+        <v>1.998</v>
       </c>
       <c r="F666" t="n">
         <v>2.7349</v>
@@ -23811,34 +23811,69 @@
         <v>44690</v>
       </c>
       <c r="B668" t="n">
-        <v>0.4995</v>
+        <v>0.5</v>
       </c>
       <c r="C668" t="n">
-        <v>0.9426</v>
+        <v>0.833</v>
       </c>
       <c r="D668" t="n">
-        <v>1.4141</v>
+        <v>1.347</v>
       </c>
       <c r="E668" t="n">
-        <v>1.9271</v>
+        <v>1.937</v>
       </c>
       <c r="F668" t="n">
-        <v>2.602</v>
+        <v>2.5979</v>
       </c>
       <c r="G668" t="n">
-        <v>2.8147</v>
+        <v>2.8091</v>
       </c>
       <c r="H668" t="n">
         <v>2.942</v>
       </c>
       <c r="I668" t="n">
-        <v>3.0326</v>
+        <v>3.0351</v>
       </c>
       <c r="J668" t="n">
         <v>3.034</v>
       </c>
       <c r="K668" t="n">
-        <v>3.155</v>
+        <v>3.156</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C669" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1.417</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F669" t="n">
+        <v>2.6062</v>
+      </c>
+      <c r="G669" t="n">
+        <v>2.8008</v>
+      </c>
+      <c r="H669" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="I669" t="n">
+        <v>2.9899</v>
+      </c>
+      <c r="J669" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="K669" t="n">
+        <v>3.127</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K669"/>
+  <dimension ref="A1:K670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23876,6 +23876,41 @@
         <v>3.127</v>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="C670" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="F670" t="n">
+        <v>2.6474</v>
+      </c>
+      <c r="G670" t="n">
+        <v>2.8348</v>
+      </c>
+      <c r="H670" t="n">
+        <v>2.8978</v>
+      </c>
+      <c r="I670" t="n">
+        <v>2.9498</v>
+      </c>
+      <c r="J670" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="K670" t="n">
+        <v>3.045</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K670"/>
+  <dimension ref="A1:K671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23911,6 +23911,41 @@
         <v>3.045</v>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="C671" t="n">
+        <v>0.9629</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1.4192</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1.9164</v>
+      </c>
+      <c r="F671" t="n">
+        <v>2.5797</v>
+      </c>
+      <c r="G671" t="n">
+        <v>2.7719</v>
+      </c>
+      <c r="H671" t="n">
+        <v>2.8382</v>
+      </c>
+      <c r="I671" t="n">
+        <v>2.8849</v>
+      </c>
+      <c r="J671" t="n">
+        <v>2.855</v>
+      </c>
+      <c r="K671" t="n">
+        <v>3.023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K671"/>
+  <dimension ref="A1:K672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23919,13 +23919,13 @@
         <v>0.606</v>
       </c>
       <c r="C671" t="n">
-        <v>0.9629</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D671" t="n">
-        <v>1.4192</v>
+        <v>1.412</v>
       </c>
       <c r="E671" t="n">
-        <v>1.9164</v>
+        <v>1.896</v>
       </c>
       <c r="F671" t="n">
         <v>2.5797</v>
@@ -23944,6 +23944,41 @@
       </c>
       <c r="K671" t="n">
         <v>3.023</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="C672" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="F672" t="n">
+        <v>2.5883</v>
+      </c>
+      <c r="G672" t="n">
+        <v>2.7828</v>
+      </c>
+      <c r="H672" t="n">
+        <v>2.8741</v>
+      </c>
+      <c r="I672" t="n">
+        <v>2.9386</v>
+      </c>
+      <c r="J672" t="n">
+        <v>2.928</v>
+      </c>
+      <c r="K672" t="n">
+        <v>3.088</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K672"/>
+  <dimension ref="A1:K674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23981,6 +23981,76 @@
         <v>3.088</v>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0.6898</v>
+      </c>
+      <c r="C673" t="n">
+        <v>1.0087</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1.4345</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1.9605</v>
+      </c>
+      <c r="F673" t="n">
+        <v>2.6027</v>
+      </c>
+      <c r="G673" t="n">
+        <v>2.8924</v>
+      </c>
+      <c r="H673" t="n">
+        <v>2.8912</v>
+      </c>
+      <c r="I673" t="n">
+        <v>2.9524</v>
+      </c>
+      <c r="J673" t="n">
+        <v>2.942</v>
+      </c>
+      <c r="K673" t="n">
+        <v>3.108</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="C674" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="F674" t="n">
+        <v>2.5739</v>
+      </c>
+      <c r="G674" t="n">
+        <v>2.7472</v>
+      </c>
+      <c r="H674" t="n">
+        <v>2.8247</v>
+      </c>
+      <c r="I674" t="n">
+        <v>2.8898</v>
+      </c>
+      <c r="J674" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="K674" t="n">
+        <v>3.103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K674"/>
+  <dimension ref="A1:K675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24051,6 +24051,41 @@
         <v>3.103</v>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="C675" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1.548</v>
+      </c>
+      <c r="E675" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F675" t="n">
+        <v>2.7106</v>
+      </c>
+      <c r="G675" t="n">
+        <v>2.9009</v>
+      </c>
+      <c r="H675" t="n">
+        <v>2.9668</v>
+      </c>
+      <c r="I675" t="n">
+        <v>3.0153</v>
+      </c>
+      <c r="J675" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="K675" t="n">
+        <v>3.194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K675"/>
+  <dimension ref="A1:K676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24086,6 +24086,41 @@
         <v>3.194</v>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="C676" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="E676" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="F676" t="n">
+        <v>2.6673</v>
+      </c>
+      <c r="G676" t="n">
+        <v>2.8378</v>
+      </c>
+      <c r="H676" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="I676" t="n">
+        <v>2.9149</v>
+      </c>
+      <c r="J676" t="n">
+        <v>2.884</v>
+      </c>
+      <c r="K676" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K676"/>
+  <dimension ref="A1:K677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24121,6 +24121,41 @@
         <v>3.07</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0.6493</v>
+      </c>
+      <c r="C677" t="n">
+        <v>1.0725</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1.5118</v>
+      </c>
+      <c r="E677" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F677" t="n">
+        <v>2.6239</v>
+      </c>
+      <c r="G677" t="n">
+        <v>2.7828</v>
+      </c>
+      <c r="H677" t="n">
+        <v>2.8453</v>
+      </c>
+      <c r="I677" t="n">
+        <v>2.8748</v>
+      </c>
+      <c r="J677" t="n">
+        <v>2.848</v>
+      </c>
+      <c r="K677" t="n">
+        <v>3.059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K677"/>
+  <dimension ref="A1:K678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24126,34 +24126,69 @@
         <v>44700</v>
       </c>
       <c r="B677" t="n">
-        <v>0.6493</v>
+        <v>0.505</v>
       </c>
       <c r="C677" t="n">
-        <v>1.0725</v>
+        <v>1.047</v>
       </c>
       <c r="D677" t="n">
-        <v>1.5118</v>
+        <v>1.502</v>
       </c>
       <c r="E677" t="n">
-        <v>2.093</v>
+        <v>2.101</v>
       </c>
       <c r="F677" t="n">
-        <v>2.6239</v>
+        <v>2.6115</v>
       </c>
       <c r="G677" t="n">
-        <v>2.7828</v>
+        <v>2.7719</v>
       </c>
       <c r="H677" t="n">
-        <v>2.8453</v>
+        <v>2.8367</v>
       </c>
       <c r="I677" t="n">
-        <v>2.8748</v>
+        <v>2.8649</v>
       </c>
       <c r="J677" t="n">
-        <v>2.848</v>
+        <v>2.837</v>
       </c>
       <c r="K677" t="n">
-        <v>3.059</v>
+        <v>3.049</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B678" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="C678" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="E678" t="n">
+        <v>2.069</v>
+      </c>
+      <c r="F678" t="n">
+        <v>2.5869</v>
+      </c>
+      <c r="G678" t="n">
+        <v>2.7361</v>
+      </c>
+      <c r="H678" t="n">
+        <v>2.806</v>
+      </c>
+      <c r="I678" t="n">
+        <v>2.8224</v>
+      </c>
+      <c r="J678" t="n">
+        <v>2.788</v>
+      </c>
+      <c r="K678" t="n">
+        <v>2.993</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K678"/>
+  <dimension ref="A1:K680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24191,6 +24191,76 @@
         <v>2.993</v>
       </c>
     </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B679" t="n">
+        <v>0.6721</v>
+      </c>
+      <c r="C679" t="n">
+        <v>1.0596</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1.4988</v>
+      </c>
+      <c r="E679" t="n">
+        <v>2.0901</v>
+      </c>
+      <c r="F679" t="n">
+        <v>2.6139</v>
+      </c>
+      <c r="G679" t="n">
+        <v>2.7581</v>
+      </c>
+      <c r="H679" t="n">
+        <v>2.8266</v>
+      </c>
+      <c r="I679" t="n">
+        <v>2.8448</v>
+      </c>
+      <c r="J679" t="n">
+        <v>2.808</v>
+      </c>
+      <c r="K679" t="n">
+        <v>3.012</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="D680" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="E680" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F680" t="n">
+        <v>2.6287</v>
+      </c>
+      <c r="G680" t="n">
+        <v>2.7939</v>
+      </c>
+      <c r="H680" t="n">
+        <v>2.8763</v>
+      </c>
+      <c r="I680" t="n">
+        <v>2.8986</v>
+      </c>
+      <c r="J680" t="n">
+        <v>2.861</v>
+      </c>
+      <c r="K680" t="n">
+        <v>3.065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K680"/>
+  <dimension ref="A1:K681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24261,6 +24261,41 @@
         <v>3.065</v>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B681" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="C681" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="F681" t="n">
+        <v>2.4807</v>
+      </c>
+      <c r="G681" t="n">
+        <v>2.6508</v>
+      </c>
+      <c r="H681" t="n">
+        <v>2.7429</v>
+      </c>
+      <c r="I681" t="n">
+        <v>2.7813</v>
+      </c>
+      <c r="J681" t="n">
+        <v>2.754</v>
+      </c>
+      <c r="K681" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K681"/>
+  <dimension ref="A1:K682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24296,6 +24296,41 @@
         <v>2.97</v>
       </c>
     </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="C682" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="D682" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="F682" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="G682" t="n">
+        <v>2.6343</v>
+      </c>
+      <c r="H682" t="n">
+        <v>2.7259</v>
+      </c>
+      <c r="I682" t="n">
+        <v>2.7651</v>
+      </c>
+      <c r="J682" t="n">
+        <v>2.751</v>
+      </c>
+      <c r="K682" t="n">
+        <v>2.975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K682"/>
+  <dimension ref="A1:K683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24331,6 +24331,41 @@
         <v>2.975</v>
       </c>
     </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0.7254</v>
+      </c>
+      <c r="C683" t="n">
+        <v>1.0699</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1.5016</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1.9801</v>
+      </c>
+      <c r="F683" t="n">
+        <v>2.4839</v>
+      </c>
+      <c r="G683" t="n">
+        <v>2.6314</v>
+      </c>
+      <c r="H683" t="n">
+        <v>2.7141</v>
+      </c>
+      <c r="I683" t="n">
+        <v>2.7599</v>
+      </c>
+      <c r="J683" t="n">
+        <v>2.754</v>
+      </c>
+      <c r="K683" t="n">
+        <v>2.987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K683"/>
+  <dimension ref="A1:K684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24336,34 +24336,69 @@
         <v>44707</v>
       </c>
       <c r="B683" t="n">
-        <v>0.7254</v>
+        <v>0.54</v>
       </c>
       <c r="C683" t="n">
-        <v>1.0699</v>
+        <v>1.055</v>
       </c>
       <c r="D683" t="n">
-        <v>1.5016</v>
+        <v>1.496</v>
       </c>
       <c r="E683" t="n">
-        <v>1.9801</v>
+        <v>1.975</v>
       </c>
       <c r="F683" t="n">
+        <v>2.4778</v>
+      </c>
+      <c r="G683" t="n">
+        <v>2.6204</v>
+      </c>
+      <c r="H683" t="n">
+        <v>2.7057</v>
+      </c>
+      <c r="I683" t="n">
+        <v>2.7502</v>
+      </c>
+      <c r="J683" t="n">
+        <v>2.742</v>
+      </c>
+      <c r="K683" t="n">
+        <v>2.974</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B684" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="C684" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F684" t="n">
         <v>2.4839</v>
       </c>
-      <c r="G683" t="n">
-        <v>2.6314</v>
-      </c>
-      <c r="H683" t="n">
-        <v>2.7141</v>
-      </c>
-      <c r="I683" t="n">
-        <v>2.7599</v>
-      </c>
-      <c r="J683" t="n">
-        <v>2.754</v>
-      </c>
-      <c r="K683" t="n">
-        <v>2.987</v>
+      <c r="G684" t="n">
+        <v>2.6419</v>
+      </c>
+      <c r="H684" t="n">
+        <v>2.7242</v>
+      </c>
+      <c r="I684" t="n">
+        <v>2.7698</v>
+      </c>
+      <c r="J684" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="K684" t="n">
+        <v>2.971</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K684"/>
+  <dimension ref="A1:K685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24401,6 +24401,41 @@
         <v>2.971</v>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B685" t="n">
+        <v>0.6619</v>
+      </c>
+      <c r="C685" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D685" t="n">
+        <v>1.4936</v>
+      </c>
+      <c r="E685" t="n">
+        <v>2.0058</v>
+      </c>
+      <c r="F685" t="n">
+        <v>2.5706</v>
+      </c>
+      <c r="G685" t="n">
+        <v>2.7359</v>
+      </c>
+      <c r="H685" t="n">
+        <v>2.807</v>
+      </c>
+      <c r="I685" t="n">
+        <v>2.8441</v>
+      </c>
+      <c r="J685" t="n">
+        <v>2.812</v>
+      </c>
+      <c r="K685" t="n">
+        <v>3.019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K685"/>
+  <dimension ref="A1:K686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24436,6 +24436,41 @@
         <v>3.019</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0.7228</v>
+      </c>
+      <c r="C686" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1.6149</v>
+      </c>
+      <c r="E686" t="n">
+        <v>2.0736</v>
+      </c>
+      <c r="F686" t="n">
+        <v>2.5726</v>
+      </c>
+      <c r="G686" t="n">
+        <v>2.7414</v>
+      </c>
+      <c r="H686" t="n">
+        <v>2.836</v>
+      </c>
+      <c r="I686" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="J686" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="K686" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K686"/>
+  <dimension ref="A1:K688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24441,34 +24441,104 @@
         <v>44712</v>
       </c>
       <c r="B686" t="n">
-        <v>0.7228</v>
+        <v>0.72</v>
       </c>
       <c r="C686" t="n">
-        <v>1.1388</v>
+        <v>1.067</v>
       </c>
       <c r="D686" t="n">
-        <v>1.6149</v>
+        <v>1.566</v>
       </c>
       <c r="E686" t="n">
-        <v>2.0736</v>
+        <v>2.053</v>
       </c>
       <c r="F686" t="n">
-        <v>2.5726</v>
+        <v>2.5626</v>
       </c>
       <c r="G686" t="n">
-        <v>2.7414</v>
+        <v>2.7276</v>
       </c>
       <c r="H686" t="n">
-        <v>2.836</v>
+        <v>2.8207</v>
       </c>
       <c r="I686" t="n">
-        <v>2.889</v>
+        <v>2.874</v>
       </c>
       <c r="J686" t="n">
-        <v>2.862</v>
+        <v>2.849</v>
       </c>
       <c r="K686" t="n">
-        <v>3.06</v>
+        <v>3.056</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="C687" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="D687" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="E687" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="F687" t="n">
+        <v>2.6477</v>
+      </c>
+      <c r="G687" t="n">
+        <v>2.8247</v>
+      </c>
+      <c r="H687" t="n">
+        <v>2.916</v>
+      </c>
+      <c r="I687" t="n">
+        <v>2.9541</v>
+      </c>
+      <c r="J687" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="K687" t="n">
+        <v>3.062</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="C688" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="D688" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E688" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="F688" t="n">
+        <v>2.6316</v>
+      </c>
+      <c r="G688" t="n">
+        <v>2.8192</v>
+      </c>
+      <c r="H688" t="n">
+        <v>2.9111</v>
+      </c>
+      <c r="I688" t="n">
+        <v>2.9491</v>
+      </c>
+      <c r="J688" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="K688" t="n">
+        <v>3.079</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K688"/>
+  <dimension ref="A1:K689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24541,6 +24541,41 @@
         <v>3.079</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C689" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="E689" t="n">
+        <v>2.162</v>
+      </c>
+      <c r="F689" t="n">
+        <v>2.6565</v>
+      </c>
+      <c r="G689" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H689" t="n">
+        <v>2.9371</v>
+      </c>
+      <c r="I689" t="n">
+        <v>2.9757</v>
+      </c>
+      <c r="J689" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="K689" t="n">
+        <v>3.095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K689"/>
+  <dimension ref="A1:K691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24576,6 +24576,76 @@
         <v>3.095</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B690" t="n">
+        <v>0.8726</v>
+      </c>
+      <c r="C690" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1.6738</v>
+      </c>
+      <c r="E690" t="n">
+        <v>2.1751</v>
+      </c>
+      <c r="F690" t="n">
+        <v>2.6565</v>
+      </c>
+      <c r="G690" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H690" t="n">
+        <v>2.9354</v>
+      </c>
+      <c r="I690" t="n">
+        <v>2.9707</v>
+      </c>
+      <c r="J690" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="K690" t="n">
+        <v>3.094</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0.8725000000000001</v>
+      </c>
+      <c r="C691" t="n">
+        <v>1.2562</v>
+      </c>
+      <c r="D691" t="n">
+        <v>1.7463</v>
+      </c>
+      <c r="E691" t="n">
+        <v>2.2168</v>
+      </c>
+      <c r="F691" t="n">
+        <v>2.7384</v>
+      </c>
+      <c r="G691" t="n">
+        <v>2.9397</v>
+      </c>
+      <c r="H691" t="n">
+        <v>3.0402</v>
+      </c>
+      <c r="I691" t="n">
+        <v>3.0793</v>
+      </c>
+      <c r="J691" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="K691" t="n">
+        <v>3.197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K691"/>
+  <dimension ref="A1:K692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24616,34 +24616,69 @@
         <v>44718</v>
       </c>
       <c r="B691" t="n">
-        <v>0.8725000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="C691" t="n">
-        <v>1.2562</v>
+        <v>1.22</v>
       </c>
       <c r="D691" t="n">
-        <v>1.7463</v>
+        <v>1.689</v>
       </c>
       <c r="E691" t="n">
-        <v>2.2168</v>
+        <v>2.196</v>
       </c>
       <c r="F691" t="n">
-        <v>2.7384</v>
+        <v>2.7323</v>
       </c>
       <c r="G691" t="n">
-        <v>2.9397</v>
+        <v>2.9369</v>
       </c>
       <c r="H691" t="n">
-        <v>3.0402</v>
+        <v>3.0368</v>
       </c>
       <c r="I691" t="n">
-        <v>3.0793</v>
+        <v>3.0768</v>
       </c>
       <c r="J691" t="n">
-        <v>3.044</v>
+        <v>3.04</v>
       </c>
       <c r="K691" t="n">
-        <v>3.197</v>
+        <v>3.191</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B692" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="C692" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="E692" t="n">
+        <v>2.206</v>
+      </c>
+      <c r="F692" t="n">
+        <v>2.7346</v>
+      </c>
+      <c r="G692" t="n">
+        <v>2.9118</v>
+      </c>
+      <c r="H692" t="n">
+        <v>2.9906</v>
+      </c>
+      <c r="I692" t="n">
+        <v>3.0199</v>
+      </c>
+      <c r="J692" t="n">
+        <v>2.979</v>
+      </c>
+      <c r="K692" t="n">
+        <v>3.131</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K692"/>
+  <dimension ref="A1:K694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24681,6 +24681,76 @@
         <v>3.131</v>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B693" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="C693" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="D693" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E693" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="F693" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="G693" t="n">
+        <v>2.9627</v>
+      </c>
+      <c r="H693" t="n">
+        <v>3.0355</v>
+      </c>
+      <c r="I693" t="n">
+        <v>3.0656</v>
+      </c>
+      <c r="J693" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K693" t="n">
+        <v>3.177</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B694" t="n">
+        <v>1.0681</v>
+      </c>
+      <c r="C694" t="n">
+        <v>1.2892</v>
+      </c>
+      <c r="D694" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E694" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F694" t="n">
+        <v>2.8154</v>
+      </c>
+      <c r="G694" t="n">
+        <v>3.0039</v>
+      </c>
+      <c r="H694" t="n">
+        <v>3.0702</v>
+      </c>
+      <c r="I694" t="n">
+        <v>3.091</v>
+      </c>
+      <c r="J694" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="K694" t="n">
+        <v>3.165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K694"/>
+  <dimension ref="A1:K695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24721,10 +24721,10 @@
         <v>44721</v>
       </c>
       <c r="B694" t="n">
-        <v>1.0681</v>
+        <v>0.905</v>
       </c>
       <c r="C694" t="n">
-        <v>1.2892</v>
+        <v>1.274</v>
       </c>
       <c r="D694" t="n">
         <v>1.808</v>
@@ -24749,6 +24749,41 @@
       </c>
       <c r="K694" t="n">
         <v>3.165</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B695" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="C695" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="D695" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E695" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="F695" t="n">
+        <v>3.0673</v>
+      </c>
+      <c r="G695" t="n">
+        <v>3.2413</v>
+      </c>
+      <c r="H695" t="n">
+        <v>3.2637</v>
+      </c>
+      <c r="I695" t="n">
+        <v>3.2473</v>
+      </c>
+      <c r="J695" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="K695" t="n">
+        <v>3.203</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K695"/>
+  <dimension ref="A1:K697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24786,6 +24786,76 @@
         <v>3.203</v>
       </c>
     </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1.1417</v>
+      </c>
+      <c r="C696" t="n">
+        <v>1.3605</v>
+      </c>
+      <c r="D696" t="n">
+        <v>1.9937</v>
+      </c>
+      <c r="E696" t="n">
+        <v>2.5332</v>
+      </c>
+      <c r="F696" t="n">
+        <v>3.1442</v>
+      </c>
+      <c r="G696" t="n">
+        <v>3.3079</v>
+      </c>
+      <c r="H696" t="n">
+        <v>3.3074</v>
+      </c>
+      <c r="I696" t="n">
+        <v>3.2704</v>
+      </c>
+      <c r="J696" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="K696" t="n">
+        <v>3.207</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="C697" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D697" t="n">
+        <v>2.2531</v>
+      </c>
+      <c r="E697" t="n">
+        <v>2.799</v>
+      </c>
+      <c r="F697" t="n">
+        <v>3.3667</v>
+      </c>
+      <c r="G697" t="n">
+        <v>3.4973</v>
+      </c>
+      <c r="H697" t="n">
+        <v>3.482</v>
+      </c>
+      <c r="I697" t="n">
+        <v>3.452</v>
+      </c>
+      <c r="J697" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="K697" t="n">
+        <v>3.355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K697"/>
+  <dimension ref="A1:K698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24832,7 +24832,7 @@
         <v>1.554</v>
       </c>
       <c r="D697" t="n">
-        <v>2.2531</v>
+        <v>2.164</v>
       </c>
       <c r="E697" t="n">
         <v>2.799</v>
@@ -24854,6 +24854,41 @@
       </c>
       <c r="K697" t="n">
         <v>3.355</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B698" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="C698" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="D698" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="E698" t="n">
+        <v>3.052</v>
+      </c>
+      <c r="F698" t="n">
+        <v>3.4393</v>
+      </c>
+      <c r="G698" t="n">
+        <v>3.5953</v>
+      </c>
+      <c r="H698" t="n">
+        <v>3.6013</v>
+      </c>
+      <c r="I698" t="n">
+        <v>3.5834</v>
+      </c>
+      <c r="J698" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="K698" t="n">
+        <v>3.431</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K698"/>
+  <dimension ref="A1:K701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24891,6 +24891,111 @@
         <v>3.431</v>
       </c>
     </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B699" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="C699" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="D699" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="E699" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="F699" t="n">
+        <v>3.2096</v>
+      </c>
+      <c r="G699" t="n">
+        <v>3.3611</v>
+      </c>
+      <c r="H699" t="n">
+        <v>3.3734</v>
+      </c>
+      <c r="I699" t="n">
+        <v>3.377</v>
+      </c>
+      <c r="J699" t="n">
+        <v>3.292</v>
+      </c>
+      <c r="K699" t="n">
+        <v>3.333</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B700" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="C700" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="D700" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="E700" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="F700" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="G700" t="n">
+        <v>3.2863</v>
+      </c>
+      <c r="H700" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="I700" t="n">
+        <v>3.2814</v>
+      </c>
+      <c r="J700" t="n">
+        <v>3.195</v>
+      </c>
+      <c r="K700" t="n">
+        <v>3.243</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="C701" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="D701" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="E701" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="F701" t="n">
+        <v>3.1701</v>
+      </c>
+      <c r="G701" t="n">
+        <v>3.3491</v>
+      </c>
+      <c r="H701" t="n">
+        <v>3.3436</v>
+      </c>
+      <c r="I701" t="n">
+        <v>3.3314</v>
+      </c>
+      <c r="J701" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="K701" t="n">
+        <v>3.282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K701"/>
+  <dimension ref="A1:K702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24996,6 +24996,41 @@
         <v>3.282</v>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1.2254</v>
+      </c>
+      <c r="C702" t="n">
+        <v>1.6489</v>
+      </c>
+      <c r="D702" t="n">
+        <v>2.2498</v>
+      </c>
+      <c r="E702" t="n">
+        <v>2.8733</v>
+      </c>
+      <c r="F702" t="n">
+        <v>3.246</v>
+      </c>
+      <c r="G702" t="n">
+        <v>3.4079</v>
+      </c>
+      <c r="H702" t="n">
+        <v>3.3894</v>
+      </c>
+      <c r="I702" t="n">
+        <v>3.3755</v>
+      </c>
+      <c r="J702" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="K702" t="n">
+        <v>3.345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K702"/>
+  <dimension ref="A1:K703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25031,6 +25031,41 @@
         <v>3.345</v>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B703" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1.7337</v>
+      </c>
+      <c r="D703" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="E703" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="F703" t="n">
+        <v>3.1942</v>
+      </c>
+      <c r="G703" t="n">
+        <v>3.3467</v>
+      </c>
+      <c r="H703" t="n">
+        <v>3.3651</v>
+      </c>
+      <c r="I703" t="n">
+        <v>3.3705</v>
+      </c>
+      <c r="J703" t="n">
+        <v>3.279</v>
+      </c>
+      <c r="K703" t="n">
+        <v>3.349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K703"/>
+  <dimension ref="A1:K704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25039,10 +25039,10 @@
         <v>1.081</v>
       </c>
       <c r="C703" t="n">
-        <v>1.7337</v>
+        <v>1.58</v>
       </c>
       <c r="D703" t="n">
-        <v>2.471</v>
+        <v>2.387</v>
       </c>
       <c r="E703" t="n">
         <v>2.923</v>
@@ -25064,6 +25064,41 @@
       </c>
       <c r="K703" t="n">
         <v>3.349</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B704" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="D704" t="n">
+        <v>2.406</v>
+      </c>
+      <c r="E704" t="n">
+        <v>2.794</v>
+      </c>
+      <c r="F704" t="n">
+        <v>3.0623</v>
+      </c>
+      <c r="G704" t="n">
+        <v>3.1991</v>
+      </c>
+      <c r="H704" t="n">
+        <v>3.2336</v>
+      </c>
+      <c r="I704" t="n">
+        <v>3.2438</v>
+      </c>
+      <c r="J704" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K704" t="n">
+        <v>3.248</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K704"/>
+  <dimension ref="A1:K705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25101,6 +25101,41 @@
         <v>3.248</v>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B705" t="n">
+        <v>1.1494</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1.634</v>
+      </c>
+      <c r="D705" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E705" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="F705" t="n">
+        <v>3.0124</v>
+      </c>
+      <c r="G705" t="n">
+        <v>3.1186</v>
+      </c>
+      <c r="H705" t="n">
+        <v>3.1412</v>
+      </c>
+      <c r="I705" t="n">
+        <v>3.1566</v>
+      </c>
+      <c r="J705" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="K705" t="n">
+        <v>3.206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K705"/>
+  <dimension ref="A1:K706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25106,7 +25106,7 @@
         <v>44735</v>
       </c>
       <c r="B705" t="n">
-        <v>1.1494</v>
+        <v>1.065</v>
       </c>
       <c r="C705" t="n">
         <v>1.634</v>
@@ -25134,6 +25134,41 @@
       </c>
       <c r="K705" t="n">
         <v>3.206</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B706" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1.687</v>
+      </c>
+      <c r="D706" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="E706" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F706" t="n">
+        <v>3.0632</v>
+      </c>
+      <c r="G706" t="n">
+        <v>3.1498</v>
+      </c>
+      <c r="H706" t="n">
+        <v>3.1875</v>
+      </c>
+      <c r="I706" t="n">
+        <v>3.2033</v>
+      </c>
+      <c r="J706" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="K706" t="n">
+        <v>3.265</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K706"/>
+  <dimension ref="A1:K708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25171,6 +25171,76 @@
         <v>3.265</v>
       </c>
     </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B707" t="n">
+        <v>1.228</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1.6949</v>
+      </c>
+      <c r="D707" t="n">
+        <v>2.5275</v>
+      </c>
+      <c r="E707" t="n">
+        <v>2.8327</v>
+      </c>
+      <c r="F707" t="n">
+        <v>3.0695</v>
+      </c>
+      <c r="G707" t="n">
+        <v>3.1526</v>
+      </c>
+      <c r="H707" t="n">
+        <v>3.1857</v>
+      </c>
+      <c r="I707" t="n">
+        <v>3.2007</v>
+      </c>
+      <c r="J707" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="K707" t="n">
+        <v>3.266</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B708" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1.8079</v>
+      </c>
+      <c r="D708" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E708" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="F708" t="n">
+        <v>3.1319</v>
+      </c>
+      <c r="G708" t="n">
+        <v>3.2116</v>
+      </c>
+      <c r="H708" t="n">
+        <v>3.2598</v>
+      </c>
+      <c r="I708" t="n">
+        <v>3.2705</v>
+      </c>
+      <c r="J708" t="n">
+        <v>3.202</v>
+      </c>
+      <c r="K708" t="n">
+        <v>3.314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K708"/>
+  <dimension ref="A1:K709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25214,7 +25214,7 @@
         <v>1.147</v>
       </c>
       <c r="C708" t="n">
-        <v>1.8079</v>
+        <v>1.685</v>
       </c>
       <c r="D708" t="n">
         <v>2.54</v>
@@ -25239,6 +25239,41 @@
       </c>
       <c r="K708" t="n">
         <v>3.314</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B709" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D709" t="n">
+        <v>2.544</v>
+      </c>
+      <c r="E709" t="n">
+        <v>2.877</v>
+      </c>
+      <c r="F709" t="n">
+        <v>3.1116</v>
+      </c>
+      <c r="G709" t="n">
+        <v>3.2007</v>
+      </c>
+      <c r="H709" t="n">
+        <v>3.2347</v>
+      </c>
+      <c r="I709" t="n">
+        <v>3.2526</v>
+      </c>
+      <c r="J709" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K709" t="n">
+        <v>3.284</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K709"/>
+  <dimension ref="A1:K710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25276,6 +25276,41 @@
         <v>3.284</v>
       </c>
     </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B710" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="D710" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="E710" t="n">
+        <v>2.848</v>
+      </c>
+      <c r="F710" t="n">
+        <v>3.0426</v>
+      </c>
+      <c r="G710" t="n">
+        <v>3.1085</v>
+      </c>
+      <c r="H710" t="n">
+        <v>3.1395</v>
+      </c>
+      <c r="I710" t="n">
+        <v>3.1598</v>
+      </c>
+      <c r="J710" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="K710" t="n">
+        <v>3.215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K710"/>
+  <dimension ref="A1:K711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25311,6 +25311,41 @@
         <v>3.215</v>
       </c>
     </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B711" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D711" t="n">
+        <v>2.505</v>
+      </c>
+      <c r="E711" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F711" t="n">
+        <v>2.9554</v>
+      </c>
+      <c r="G711" t="n">
+        <v>3.011</v>
+      </c>
+      <c r="H711" t="n">
+        <v>3.0429</v>
+      </c>
+      <c r="I711" t="n">
+        <v>3.0726</v>
+      </c>
+      <c r="J711" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="K711" t="n">
+        <v>3.184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K711"/>
+  <dimension ref="A1:K712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25346,6 +25346,41 @@
         <v>3.184</v>
       </c>
     </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B712" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D712" t="n">
+        <v>2.509</v>
+      </c>
+      <c r="E712" t="n">
+        <v>2.718</v>
+      </c>
+      <c r="F712" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="G712" t="n">
+        <v>2.8635</v>
+      </c>
+      <c r="H712" t="n">
+        <v>2.8842</v>
+      </c>
+      <c r="I712" t="n">
+        <v>2.9301</v>
+      </c>
+      <c r="J712" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="K712" t="n">
+        <v>3.116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -25351,16 +25351,16 @@
         <v>44743</v>
       </c>
       <c r="B712" t="n">
-        <v>1.291</v>
+        <v>1.2914</v>
       </c>
       <c r="C712" t="n">
-        <v>1.71</v>
+        <v>1.7025</v>
       </c>
       <c r="D712" t="n">
-        <v>2.509</v>
+        <v>2.5169</v>
       </c>
       <c r="E712" t="n">
-        <v>2.718</v>
+        <v>2.7523</v>
       </c>
       <c r="F712" t="n">
         <v>2.839</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -25351,16 +25351,16 @@
         <v>44743</v>
       </c>
       <c r="B712" t="n">
-        <v>1.2914</v>
+        <v>1.291</v>
       </c>
       <c r="C712" t="n">
-        <v>1.7025</v>
+        <v>1.71</v>
       </c>
       <c r="D712" t="n">
-        <v>2.5169</v>
+        <v>2.509</v>
       </c>
       <c r="E712" t="n">
-        <v>2.7523</v>
+        <v>2.718</v>
       </c>
       <c r="F712" t="n">
         <v>2.839</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K712"/>
+  <dimension ref="A1:K713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25381,6 +25381,41 @@
         <v>3.116</v>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B713" t="n">
+        <v>1.3296</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1.7536</v>
+      </c>
+      <c r="D713" t="n">
+        <v>2.5533</v>
+      </c>
+      <c r="E713" t="n">
+        <v>2.7787</v>
+      </c>
+      <c r="F713" t="n">
+        <v>2.9102</v>
+      </c>
+      <c r="G713" t="n">
+        <v>2.9137</v>
+      </c>
+      <c r="H713" t="n">
+        <v>2.916</v>
+      </c>
+      <c r="I713" t="n">
+        <v>2.9633</v>
+      </c>
+      <c r="J713" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="K713" t="n">
+        <v>3.161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K713"/>
+  <dimension ref="A1:K714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25416,6 +25416,41 @@
         <v>3.161</v>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B714" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1.9358</v>
+      </c>
+      <c r="D714" t="n">
+        <v>2.538</v>
+      </c>
+      <c r="E714" t="n">
+        <v>2.752</v>
+      </c>
+      <c r="F714" t="n">
+        <v>2.8225</v>
+      </c>
+      <c r="G714" t="n">
+        <v>2.8273</v>
+      </c>
+      <c r="H714" t="n">
+        <v>2.8236</v>
+      </c>
+      <c r="I714" t="n">
+        <v>2.8673</v>
+      </c>
+      <c r="J714" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="K714" t="n">
+        <v>3.049</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K714"/>
+  <dimension ref="A1:K715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25424,7 +25424,7 @@
         <v>1.302</v>
       </c>
       <c r="C714" t="n">
-        <v>1.9358</v>
+        <v>1.731</v>
       </c>
       <c r="D714" t="n">
         <v>2.538</v>
@@ -25449,6 +25449,41 @@
       </c>
       <c r="K714" t="n">
         <v>3.049</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B715" t="n">
+        <v>1.307</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D715" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="E715" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="F715" t="n">
+        <v>2.9957</v>
+      </c>
+      <c r="G715" t="n">
+        <v>3.0116</v>
+      </c>
+      <c r="H715" t="n">
+        <v>2.9797</v>
+      </c>
+      <c r="I715" t="n">
+        <v>3.0002</v>
+      </c>
+      <c r="J715" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="K715" t="n">
+        <v>3.127</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K715"/>
+  <dimension ref="A1:K716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25486,6 +25486,41 @@
         <v>3.127</v>
       </c>
     </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B716" t="n">
+        <v>1.301</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="D716" t="n">
+        <v>2.606</v>
+      </c>
+      <c r="E716" t="n">
+        <v>2.865</v>
+      </c>
+      <c r="F716" t="n">
+        <v>3.0244</v>
+      </c>
+      <c r="G716" t="n">
+        <v>3.0454</v>
+      </c>
+      <c r="H716" t="n">
+        <v>3.0387</v>
+      </c>
+      <c r="I716" t="n">
+        <v>3.0696</v>
+      </c>
+      <c r="J716" t="n">
+        <v>3</v>
+      </c>
+      <c r="K716" t="n">
+        <v>3.188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K716"/>
+  <dimension ref="A1:K717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25521,6 +25521,41 @@
         <v>3.188</v>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B717" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1.963</v>
+      </c>
+      <c r="D717" t="n">
+        <v>2.642</v>
+      </c>
+      <c r="E717" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="F717" t="n">
+        <v>3.1047</v>
+      </c>
+      <c r="G717" t="n">
+        <v>3.1389</v>
+      </c>
+      <c r="H717" t="n">
+        <v>3.1217</v>
+      </c>
+      <c r="I717" t="n">
+        <v>3.1493</v>
+      </c>
+      <c r="J717" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K717" t="n">
+        <v>3.252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -25526,16 +25526,16 @@
         <v>44750</v>
       </c>
       <c r="B717" t="n">
-        <v>1.571</v>
+        <v>1.5659</v>
       </c>
       <c r="C717" t="n">
-        <v>1.963</v>
+        <v>1.9583</v>
       </c>
       <c r="D717" t="n">
-        <v>2.642</v>
+        <v>2.6574</v>
       </c>
       <c r="E717" t="n">
-        <v>2.944</v>
+        <v>2.9518</v>
       </c>
       <c r="F717" t="n">
         <v>3.1047</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -25526,16 +25526,16 @@
         <v>44750</v>
       </c>
       <c r="B717" t="n">
-        <v>1.5659</v>
+        <v>1.571</v>
       </c>
       <c r="C717" t="n">
-        <v>1.9583</v>
+        <v>1.963</v>
       </c>
       <c r="D717" t="n">
-        <v>2.6574</v>
+        <v>2.642</v>
       </c>
       <c r="E717" t="n">
-        <v>2.9518</v>
+        <v>2.944</v>
       </c>
       <c r="F717" t="n">
         <v>3.1047</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K717"/>
+  <dimension ref="A1:K719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25556,6 +25556,76 @@
         <v>3.252</v>
       </c>
     </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B718" t="n">
+        <v>1.5557</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1.9225</v>
+      </c>
+      <c r="D718" t="n">
+        <v>2.6548</v>
+      </c>
+      <c r="E718" t="n">
+        <v>2.9228</v>
+      </c>
+      <c r="F718" t="n">
+        <v>3.1233</v>
+      </c>
+      <c r="G718" t="n">
+        <v>3.1643</v>
+      </c>
+      <c r="H718" t="n">
+        <v>3.1438</v>
+      </c>
+      <c r="I718" t="n">
+        <v>3.1694</v>
+      </c>
+      <c r="J718" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="K718" t="n">
+        <v>3.263</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B719" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="C719" t="n">
+        <v>2.1664</v>
+      </c>
+      <c r="D719" t="n">
+        <v>2.717</v>
+      </c>
+      <c r="E719" t="n">
+        <v>2.994</v>
+      </c>
+      <c r="F719" t="n">
+        <v>3.0697</v>
+      </c>
+      <c r="G719" t="n">
+        <v>3.1024</v>
+      </c>
+      <c r="H719" t="n">
+        <v>3.0535</v>
+      </c>
+      <c r="I719" t="n">
+        <v>3.0693</v>
+      </c>
+      <c r="J719" t="n">
+        <v>2.993</v>
+      </c>
+      <c r="K719" t="n">
+        <v>3.175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K719"/>
+  <dimension ref="A1:K720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25599,7 +25599,7 @@
         <v>1.558</v>
       </c>
       <c r="C719" t="n">
-        <v>2.1664</v>
+        <v>2.061</v>
       </c>
       <c r="D719" t="n">
         <v>2.717</v>
@@ -25624,6 +25624,41 @@
       </c>
       <c r="K719" t="n">
         <v>3.175</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B720" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="C720" t="n">
+        <v>2.205</v>
+      </c>
+      <c r="D720" t="n">
+        <v>2.768</v>
+      </c>
+      <c r="E720" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="F720" t="n">
+        <v>3.0512</v>
+      </c>
+      <c r="G720" t="n">
+        <v>3.0851</v>
+      </c>
+      <c r="H720" t="n">
+        <v>3.0195</v>
+      </c>
+      <c r="I720" t="n">
+        <v>3.0344</v>
+      </c>
+      <c r="J720" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="K720" t="n">
+        <v>3.159</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K720"/>
+  <dimension ref="A1:K721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25661,6 +25661,41 @@
         <v>3.159</v>
       </c>
     </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B721" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="C721" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="D721" t="n">
+        <v>2.945</v>
+      </c>
+      <c r="E721" t="n">
+        <v>3.211</v>
+      </c>
+      <c r="F721" t="n">
+        <v>3.1485</v>
+      </c>
+      <c r="G721" t="n">
+        <v>3.1512</v>
+      </c>
+      <c r="H721" t="n">
+        <v>3.0278</v>
+      </c>
+      <c r="I721" t="n">
+        <v>3.0169</v>
+      </c>
+      <c r="J721" t="n">
+        <v>2.935</v>
+      </c>
+      <c r="K721" t="n">
+        <v>3.116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K721"/>
+  <dimension ref="A1:K722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25696,6 +25696,41 @@
         <v>3.116</v>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B722" t="n">
+        <v>1.9602</v>
+      </c>
+      <c r="C722" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="D722" t="n">
+        <v>2.924</v>
+      </c>
+      <c r="E722" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="F722" t="n">
+        <v>3.1279</v>
+      </c>
+      <c r="G722" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="H722" t="n">
+        <v>3.0634</v>
+      </c>
+      <c r="I722" t="n">
+        <v>3.0491</v>
+      </c>
+      <c r="J722" t="n">
+        <v>2.958</v>
+      </c>
+      <c r="K722" t="n">
+        <v>3.108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K722"/>
+  <dimension ref="A1:K723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25701,7 +25701,7 @@
         <v>44756</v>
       </c>
       <c r="B722" t="n">
-        <v>1.9602</v>
+        <v>1.672</v>
       </c>
       <c r="C722" t="n">
         <v>2.399</v>
@@ -25729,6 +25729,41 @@
       </c>
       <c r="K722" t="n">
         <v>3.108</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B723" t="n">
+        <v>1.965</v>
+      </c>
+      <c r="C723" t="n">
+        <v>2.335</v>
+      </c>
+      <c r="D723" t="n">
+        <v>2.868</v>
+      </c>
+      <c r="E723" t="n">
+        <v>3.091</v>
+      </c>
+      <c r="F723" t="n">
+        <v>3.1305</v>
+      </c>
+      <c r="G723" t="n">
+        <v>3.1322</v>
+      </c>
+      <c r="H723" t="n">
+        <v>3.0477</v>
+      </c>
+      <c r="I723" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="J723" t="n">
+        <v>2.928</v>
+      </c>
+      <c r="K723" t="n">
+        <v>3.091</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K723"/>
+  <dimension ref="A1:K725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25766,6 +25766,76 @@
         <v>3.091</v>
       </c>
     </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B724" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="C724" t="n">
+        <v>2.4039</v>
+      </c>
+      <c r="D724" t="n">
+        <v>2.897</v>
+      </c>
+      <c r="E724" t="n">
+        <v>3.1066</v>
+      </c>
+      <c r="F724" t="n">
+        <v>3.1305</v>
+      </c>
+      <c r="G724" t="n">
+        <v>3.1322</v>
+      </c>
+      <c r="H724" t="n">
+        <v>3.0477</v>
+      </c>
+      <c r="I724" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="J724" t="n">
+        <v>2.928</v>
+      </c>
+      <c r="K724" t="n">
+        <v>3.091</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1.942</v>
+      </c>
+      <c r="C725" t="n">
+        <v>2.5101</v>
+      </c>
+      <c r="D725" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="E725" t="n">
+        <v>3.128</v>
+      </c>
+      <c r="F725" t="n">
+        <v>3.1702</v>
+      </c>
+      <c r="G725" t="n">
+        <v>3.1766</v>
+      </c>
+      <c r="H725" t="n">
+        <v>3.1039</v>
+      </c>
+      <c r="I725" t="n">
+        <v>3.0888</v>
+      </c>
+      <c r="J725" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="K725" t="n">
+        <v>3.164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K725"/>
+  <dimension ref="A1:K727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25809,7 +25809,7 @@
         <v>1.942</v>
       </c>
       <c r="C725" t="n">
-        <v>2.5101</v>
+        <v>2.37</v>
       </c>
       <c r="D725" t="n">
         <v>2.933</v>
@@ -25834,6 +25834,76 @@
       </c>
       <c r="K725" t="n">
         <v>3.164</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="C726" t="n">
+        <v>2.505</v>
+      </c>
+      <c r="D726" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E726" t="n">
+        <v>3.199</v>
+      </c>
+      <c r="F726" t="n">
+        <v>3.2416</v>
+      </c>
+      <c r="G726" t="n">
+        <v>3.2405</v>
+      </c>
+      <c r="H726" t="n">
+        <v>3.1603</v>
+      </c>
+      <c r="I726" t="n">
+        <v>3.1364</v>
+      </c>
+      <c r="J726" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K726" t="n">
+        <v>3.183</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C727" t="n">
+        <v>2.492</v>
+      </c>
+      <c r="D727" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="E727" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="F727" t="n">
+        <v>3.2356</v>
+      </c>
+      <c r="G727" t="n">
+        <v>3.2323</v>
+      </c>
+      <c r="H727" t="n">
+        <v>3.1672</v>
+      </c>
+      <c r="I727" t="n">
+        <v>3.1438</v>
+      </c>
+      <c r="J727" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K727" t="n">
+        <v>3.165</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K727"/>
+  <dimension ref="A1:K728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25906,6 +25906,41 @@
         <v>3.165</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B728" t="n">
+        <v>2.1815</v>
+      </c>
+      <c r="C728" t="n">
+        <v>2.458</v>
+      </c>
+      <c r="D728" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E728" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F728" t="n">
+        <v>3.0955</v>
+      </c>
+      <c r="G728" t="n">
+        <v>3.0662</v>
+      </c>
+      <c r="H728" t="n">
+        <v>2.9894</v>
+      </c>
+      <c r="I728" t="n">
+        <v>2.9714</v>
+      </c>
+      <c r="J728" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="K728" t="n">
+        <v>3.053</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K728"/>
+  <dimension ref="A1:K729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25911,7 +25911,7 @@
         <v>44763</v>
       </c>
       <c r="B728" t="n">
-        <v>2.1815</v>
+        <v>1.83</v>
       </c>
       <c r="C728" t="n">
         <v>2.458</v>
@@ -25939,6 +25939,41 @@
       </c>
       <c r="K728" t="n">
         <v>3.053</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B729" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="C729" t="n">
+        <v>2.448</v>
+      </c>
+      <c r="D729" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="E729" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="F729" t="n">
+        <v>2.9721</v>
+      </c>
+      <c r="G729" t="n">
+        <v>2.9224</v>
+      </c>
+      <c r="H729" t="n">
+        <v>2.8481</v>
+      </c>
+      <c r="I729" t="n">
+        <v>2.8375</v>
+      </c>
+      <c r="J729" t="n">
+        <v>2.754</v>
+      </c>
+      <c r="K729" t="n">
+        <v>2.976</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -25946,16 +25946,16 @@
         <v>44764</v>
       </c>
       <c r="B729" t="n">
-        <v>2.148</v>
+        <v>2.1455</v>
       </c>
       <c r="C729" t="n">
-        <v>2.448</v>
+        <v>2.4424</v>
       </c>
       <c r="D729" t="n">
-        <v>2.933</v>
+        <v>2.9439</v>
       </c>
       <c r="E729" t="n">
-        <v>3.018</v>
+        <v>3.0151</v>
       </c>
       <c r="F729" t="n">
         <v>2.9721</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -25946,16 +25946,16 @@
         <v>44764</v>
       </c>
       <c r="B729" t="n">
-        <v>2.1455</v>
+        <v>2.148</v>
       </c>
       <c r="C729" t="n">
-        <v>2.4424</v>
+        <v>2.448</v>
       </c>
       <c r="D729" t="n">
-        <v>2.9439</v>
+        <v>2.933</v>
       </c>
       <c r="E729" t="n">
-        <v>3.0151</v>
+        <v>3.018</v>
       </c>
       <c r="F729" t="n">
         <v>2.9721</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K729"/>
+  <dimension ref="A1:K731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25976,6 +25976,76 @@
         <v>2.976</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B730" t="n">
+        <v>2.1455</v>
+      </c>
+      <c r="C730" t="n">
+        <v>2.4655</v>
+      </c>
+      <c r="D730" t="n">
+        <v>2.9491</v>
+      </c>
+      <c r="E730" t="n">
+        <v>3.0178</v>
+      </c>
+      <c r="F730" t="n">
+        <v>3.0035</v>
+      </c>
+      <c r="G730" t="n">
+        <v>2.9556</v>
+      </c>
+      <c r="H730" t="n">
+        <v>2.8819</v>
+      </c>
+      <c r="I730" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="J730" t="n">
+        <v>2.785</v>
+      </c>
+      <c r="K730" t="n">
+        <v>2.997</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B731" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="C731" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="D731" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="E731" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F731" t="n">
+        <v>3.0182</v>
+      </c>
+      <c r="G731" t="n">
+        <v>2.9694</v>
+      </c>
+      <c r="H731" t="n">
+        <v>2.8885</v>
+      </c>
+      <c r="I731" t="n">
+        <v>2.8842</v>
+      </c>
+      <c r="J731" t="n">
+        <v>2.807</v>
+      </c>
+      <c r="K731" t="n">
+        <v>3.029</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K731"/>
+  <dimension ref="A1:K732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26046,6 +26046,41 @@
         <v>3.029</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B732" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="C732" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D732" t="n">
+        <v>2.979</v>
+      </c>
+      <c r="E732" t="n">
+        <v>3.052</v>
+      </c>
+      <c r="F732" t="n">
+        <v>3.0589</v>
+      </c>
+      <c r="G732" t="n">
+        <v>3.0081</v>
+      </c>
+      <c r="H732" t="n">
+        <v>2.9002</v>
+      </c>
+      <c r="I732" t="n">
+        <v>2.8841</v>
+      </c>
+      <c r="J732" t="n">
+        <v>2.803</v>
+      </c>
+      <c r="K732" t="n">
+        <v>3.023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K732"/>
+  <dimension ref="A1:K733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26081,6 +26081,41 @@
         <v>3.023</v>
       </c>
     </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B733" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="C733" t="n">
+        <v>2.451</v>
+      </c>
+      <c r="D733" t="n">
+        <v>2.924</v>
+      </c>
+      <c r="E733" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="F733" t="n">
+        <v>2.9837</v>
+      </c>
+      <c r="G733" t="n">
+        <v>2.9415</v>
+      </c>
+      <c r="H733" t="n">
+        <v>2.8361</v>
+      </c>
+      <c r="I733" t="n">
+        <v>2.8395</v>
+      </c>
+      <c r="J733" t="n">
+        <v>2.785</v>
+      </c>
+      <c r="K733" t="n">
+        <v>3.069</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K733"/>
+  <dimension ref="A1:K734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26116,6 +26116,41 @@
         <v>3.069</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B734" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="C734" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D734" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E734" t="n">
+        <v>2.917</v>
+      </c>
+      <c r="F734" t="n">
+        <v>2.8683</v>
+      </c>
+      <c r="G734" t="n">
+        <v>2.8088</v>
+      </c>
+      <c r="H734" t="n">
+        <v>2.6979</v>
+      </c>
+      <c r="I734" t="n">
+        <v>2.7043</v>
+      </c>
+      <c r="J734" t="n">
+        <v>2.671</v>
+      </c>
+      <c r="K734" t="n">
+        <v>3.017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K734"/>
+  <dimension ref="A1:K735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26151,6 +26151,41 @@
         <v>3.017</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B735" t="n">
+        <v>2.1836</v>
+      </c>
+      <c r="C735" t="n">
+        <v>2.3757</v>
+      </c>
+      <c r="D735" t="n">
+        <v>2.8866</v>
+      </c>
+      <c r="E735" t="n">
+        <v>2.9795</v>
+      </c>
+      <c r="F735" t="n">
+        <v>2.8905</v>
+      </c>
+      <c r="G735" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="H735" t="n">
+        <v>2.6811</v>
+      </c>
+      <c r="I735" t="n">
+        <v>2.6891</v>
+      </c>
+      <c r="J735" t="n">
+        <v>2.658</v>
+      </c>
+      <c r="K735" t="n">
+        <v>3.012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -26156,16 +26156,16 @@
         <v>44771</v>
       </c>
       <c r="B735" t="n">
-        <v>2.1836</v>
+        <v>2.189</v>
       </c>
       <c r="C735" t="n">
-        <v>2.3757</v>
+        <v>2.373</v>
       </c>
       <c r="D735" t="n">
-        <v>2.8866</v>
+        <v>2.866</v>
       </c>
       <c r="E735" t="n">
-        <v>2.9795</v>
+        <v>2.974</v>
       </c>
       <c r="F735" t="n">
         <v>2.8905</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K735"/>
+  <dimension ref="A1:K737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26186,6 +26186,76 @@
         <v>3.012</v>
       </c>
     </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B736" t="n">
+        <v>2.1836</v>
+      </c>
+      <c r="C736" t="n">
+        <v>2.3783</v>
+      </c>
+      <c r="D736" t="n">
+        <v>2.8918</v>
+      </c>
+      <c r="E736" t="n">
+        <v>2.9636</v>
+      </c>
+      <c r="F736" t="n">
+        <v>2.9209</v>
+      </c>
+      <c r="G736" t="n">
+        <v>2.8359</v>
+      </c>
+      <c r="H736" t="n">
+        <v>2.7029</v>
+      </c>
+      <c r="I736" t="n">
+        <v>2.7051</v>
+      </c>
+      <c r="J736" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K736" t="n">
+        <v>3.025</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B737" t="n">
+        <v>2.2191</v>
+      </c>
+      <c r="C737" t="n">
+        <v>2.5332</v>
+      </c>
+      <c r="D737" t="n">
+        <v>2.9475</v>
+      </c>
+      <c r="E737" t="n">
+        <v>2.9767</v>
+      </c>
+      <c r="F737" t="n">
+        <v>2.8741</v>
+      </c>
+      <c r="G737" t="n">
+        <v>2.7942</v>
+      </c>
+      <c r="H737" t="n">
+        <v>2.6274</v>
+      </c>
+      <c r="I737" t="n">
+        <v>2.6151</v>
+      </c>
+      <c r="J737" t="n">
+        <v>2.568</v>
+      </c>
+      <c r="K737" t="n">
+        <v>2.906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K737"/>
+  <dimension ref="A1:K738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26256,6 +26256,41 @@
         <v>2.906</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B738" t="n">
+        <v>2.2139</v>
+      </c>
+      <c r="C738" t="n">
+        <v>2.5536</v>
+      </c>
+      <c r="D738" t="n">
+        <v>3.0206</v>
+      </c>
+      <c r="E738" t="n">
+        <v>3.1035</v>
+      </c>
+      <c r="F738" t="n">
+        <v>3.063</v>
+      </c>
+      <c r="G738" t="n">
+        <v>3.0192</v>
+      </c>
+      <c r="H738" t="n">
+        <v>2.8565</v>
+      </c>
+      <c r="I738" t="n">
+        <v>2.8207</v>
+      </c>
+      <c r="J738" t="n">
+        <v>2.747</v>
+      </c>
+      <c r="K738" t="n">
+        <v>3.008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K738"/>
+  <dimension ref="A1:K739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26226,34 +26226,34 @@
         <v>44774</v>
       </c>
       <c r="B737" t="n">
-        <v>2.2191</v>
+        <v>2.217</v>
       </c>
       <c r="C737" t="n">
-        <v>2.5332</v>
+        <v>2.386</v>
       </c>
       <c r="D737" t="n">
-        <v>2.9475</v>
+        <v>2.91</v>
       </c>
       <c r="E737" t="n">
-        <v>2.9767</v>
+        <v>2.979</v>
       </c>
       <c r="F737" t="n">
-        <v>2.8741</v>
+        <v>2.8863</v>
       </c>
       <c r="G737" t="n">
-        <v>2.7942</v>
+        <v>2.8108</v>
       </c>
       <c r="H737" t="n">
-        <v>2.6274</v>
+        <v>2.6542</v>
       </c>
       <c r="I737" t="n">
-        <v>2.6151</v>
+        <v>2.6397</v>
       </c>
       <c r="J737" t="n">
-        <v>2.568</v>
+        <v>2.588</v>
       </c>
       <c r="K737" t="n">
-        <v>2.906</v>
+        <v>2.916</v>
       </c>
     </row>
     <row r="738">
@@ -26261,34 +26261,69 @@
         <v>44775</v>
       </c>
       <c r="B738" t="n">
-        <v>2.2139</v>
+        <v>2.186</v>
       </c>
       <c r="C738" t="n">
-        <v>2.5536</v>
+        <v>2.533</v>
       </c>
       <c r="D738" t="n">
-        <v>3.0206</v>
+        <v>2.981</v>
       </c>
       <c r="E738" t="n">
-        <v>3.1035</v>
+        <v>3.101</v>
       </c>
       <c r="F738" t="n">
         <v>3.063</v>
       </c>
       <c r="G738" t="n">
-        <v>3.0192</v>
+        <v>3.0136</v>
       </c>
       <c r="H738" t="n">
-        <v>2.8565</v>
+        <v>2.8582</v>
       </c>
       <c r="I738" t="n">
-        <v>2.8207</v>
+        <v>2.8245</v>
       </c>
       <c r="J738" t="n">
-        <v>2.747</v>
+        <v>2.748</v>
       </c>
       <c r="K738" t="n">
-        <v>3.008</v>
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B739" t="n">
+        <v>2.153</v>
+      </c>
+      <c r="C739" t="n">
+        <v>2.487</v>
+      </c>
+      <c r="D739" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="E739" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="F739" t="n">
+        <v>3.0692</v>
+      </c>
+      <c r="G739" t="n">
+        <v>3.0108</v>
+      </c>
+      <c r="H739" t="n">
+        <v>2.8294</v>
+      </c>
+      <c r="I739" t="n">
+        <v>2.7859</v>
+      </c>
+      <c r="J739" t="n">
+        <v>2.706</v>
+      </c>
+      <c r="K739" t="n">
+        <v>2.952</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K739"/>
+  <dimension ref="A1:K740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26326,6 +26326,41 @@
         <v>2.952</v>
       </c>
     </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B740" t="n">
+        <v>2.1433</v>
+      </c>
+      <c r="C740" t="n">
+        <v>2.443</v>
+      </c>
+      <c r="D740" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E740" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="F740" t="n">
+        <v>3.0488</v>
+      </c>
+      <c r="G740" t="n">
+        <v>2.9828</v>
+      </c>
+      <c r="H740" t="n">
+        <v>2.7972</v>
+      </c>
+      <c r="I740" t="n">
+        <v>2.7561</v>
+      </c>
+      <c r="J740" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="K740" t="n">
+        <v>2.977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K740"/>
+  <dimension ref="A1:K741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26331,7 +26331,7 @@
         <v>44777</v>
       </c>
       <c r="B740" t="n">
-        <v>2.1433</v>
+        <v>2.112</v>
       </c>
       <c r="C740" t="n">
         <v>2.443</v>
@@ -26359,6 +26359,41 @@
       </c>
       <c r="K740" t="n">
         <v>2.977</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B741" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="C741" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D741" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="E741" t="n">
+        <v>3.269</v>
+      </c>
+      <c r="F741" t="n">
+        <v>3.2298</v>
+      </c>
+      <c r="G741" t="n">
+        <v>3.1709</v>
+      </c>
+      <c r="H741" t="n">
+        <v>2.9572</v>
+      </c>
+      <c r="I741" t="n">
+        <v>2.9013</v>
+      </c>
+      <c r="J741" t="n">
+        <v>2.827</v>
+      </c>
+      <c r="K741" t="n">
+        <v>3.066</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K741"/>
+  <dimension ref="A1:K744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26396,6 +26396,111 @@
         <v>3.066</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B742" t="n">
+        <v>2.1887</v>
+      </c>
+      <c r="C742" t="n">
+        <v>2.5373</v>
+      </c>
+      <c r="D742" t="n">
+        <v>3.0587</v>
+      </c>
+      <c r="E742" t="n">
+        <v>3.2986</v>
+      </c>
+      <c r="F742" t="n">
+        <v>3.2504</v>
+      </c>
+      <c r="G742" t="n">
+        <v>3.1877</v>
+      </c>
+      <c r="H742" t="n">
+        <v>2.9675</v>
+      </c>
+      <c r="I742" t="n">
+        <v>2.9113</v>
+      </c>
+      <c r="J742" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="K742" t="n">
+        <v>3.073</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B743" t="n">
+        <v>2.1962</v>
+      </c>
+      <c r="C743" t="n">
+        <v>2.6642</v>
+      </c>
+      <c r="D743" t="n">
+        <v>3.1199</v>
+      </c>
+      <c r="E743" t="n">
+        <v>3.2825</v>
+      </c>
+      <c r="F743" t="n">
+        <v>3.2033</v>
+      </c>
+      <c r="G743" t="n">
+        <v>3.1344</v>
+      </c>
+      <c r="H743" t="n">
+        <v>2.9027</v>
+      </c>
+      <c r="I743" t="n">
+        <v>2.8411</v>
+      </c>
+      <c r="J743" t="n">
+        <v>2.752</v>
+      </c>
+      <c r="K743" t="n">
+        <v>2.983</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B744" t="n">
+        <v>2.2113</v>
+      </c>
+      <c r="C744" t="n">
+        <v>2.6846</v>
+      </c>
+      <c r="D744" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="E744" t="n">
+        <v>3.3706</v>
+      </c>
+      <c r="F744" t="n">
+        <v>3.2737</v>
+      </c>
+      <c r="G744" t="n">
+        <v>3.2158</v>
+      </c>
+      <c r="H744" t="n">
+        <v>2.9694</v>
+      </c>
+      <c r="I744" t="n">
+        <v>2.8952</v>
+      </c>
+      <c r="J744" t="n">
+        <v>2.786</v>
+      </c>
+      <c r="K744" t="n">
+        <v>3.002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K744"/>
+  <dimension ref="A1:K745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26501,6 +26501,41 @@
         <v>3.002</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B745" t="n">
+        <v>2.1985</v>
+      </c>
+      <c r="C745" t="n">
+        <v>2.6176</v>
+      </c>
+      <c r="D745" t="n">
+        <v>3.0728</v>
+      </c>
+      <c r="E745" t="n">
+        <v>3.2828</v>
+      </c>
+      <c r="F745" t="n">
+        <v>3.2141</v>
+      </c>
+      <c r="G745" t="n">
+        <v>3.1442</v>
+      </c>
+      <c r="H745" t="n">
+        <v>2.9267</v>
+      </c>
+      <c r="I745" t="n">
+        <v>2.8689</v>
+      </c>
+      <c r="J745" t="n">
+        <v>2.785</v>
+      </c>
+      <c r="K745" t="n">
+        <v>3.037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K745"/>
+  <dimension ref="A1:K746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26436,34 +26436,34 @@
         <v>44781</v>
       </c>
       <c r="B743" t="n">
-        <v>2.1962</v>
+        <v>2.148</v>
       </c>
       <c r="C743" t="n">
-        <v>2.6642</v>
+        <v>2.529</v>
       </c>
       <c r="D743" t="n">
-        <v>3.1199</v>
+        <v>3.079</v>
       </c>
       <c r="E743" t="n">
-        <v>3.2825</v>
+        <v>3.274</v>
       </c>
       <c r="F743" t="n">
-        <v>3.2033</v>
+        <v>3.2094</v>
       </c>
       <c r="G743" t="n">
-        <v>3.1344</v>
+        <v>3.1372</v>
       </c>
       <c r="H743" t="n">
-        <v>2.9027</v>
+        <v>2.9061</v>
       </c>
       <c r="I743" t="n">
         <v>2.8411</v>
       </c>
       <c r="J743" t="n">
-        <v>2.752</v>
+        <v>2.75</v>
       </c>
       <c r="K743" t="n">
-        <v>2.983</v>
+        <v>2.976</v>
       </c>
     </row>
     <row r="744">
@@ -26471,34 +26471,34 @@
         <v>44782</v>
       </c>
       <c r="B744" t="n">
-        <v>2.2113</v>
+        <v>2.183</v>
       </c>
       <c r="C744" t="n">
-        <v>2.6846</v>
+        <v>2.633</v>
       </c>
       <c r="D744" t="n">
         <v>3.146</v>
       </c>
       <c r="E744" t="n">
-        <v>3.3706</v>
+        <v>3.285</v>
       </c>
       <c r="F744" t="n">
-        <v>3.2737</v>
+        <v>3.2676</v>
       </c>
       <c r="G744" t="n">
-        <v>3.2158</v>
+        <v>3.205</v>
       </c>
       <c r="H744" t="n">
-        <v>2.9694</v>
+        <v>2.9608</v>
       </c>
       <c r="I744" t="n">
-        <v>2.8952</v>
+        <v>2.8813</v>
       </c>
       <c r="J744" t="n">
-        <v>2.786</v>
+        <v>2.779</v>
       </c>
       <c r="K744" t="n">
-        <v>3.002</v>
+        <v>2.996</v>
       </c>
     </row>
     <row r="745">
@@ -26506,34 +26506,69 @@
         <v>44783</v>
       </c>
       <c r="B745" t="n">
-        <v>2.1985</v>
+        <v>2.183</v>
       </c>
       <c r="C745" t="n">
-        <v>2.6176</v>
+        <v>2.597</v>
       </c>
       <c r="D745" t="n">
-        <v>3.0728</v>
+        <v>3.055</v>
       </c>
       <c r="E745" t="n">
-        <v>3.2828</v>
+        <v>3.269</v>
       </c>
       <c r="F745" t="n">
-        <v>3.2141</v>
+        <v>3.2203</v>
       </c>
       <c r="G745" t="n">
-        <v>3.1442</v>
+        <v>3.1525</v>
       </c>
       <c r="H745" t="n">
         <v>2.9267</v>
       </c>
       <c r="I745" t="n">
-        <v>2.8689</v>
+        <v>2.8664</v>
       </c>
       <c r="J745" t="n">
         <v>2.785</v>
       </c>
       <c r="K745" t="n">
         <v>3.037</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B746" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="C746" t="n">
+        <v>2.558</v>
+      </c>
+      <c r="D746" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="E746" t="n">
+        <v>3.253</v>
+      </c>
+      <c r="F746" t="n">
+        <v>3.2268</v>
+      </c>
+      <c r="G746" t="n">
+        <v>3.1745</v>
+      </c>
+      <c r="H746" t="n">
+        <v>2.9919</v>
+      </c>
+      <c r="I746" t="n">
+        <v>2.9521</v>
+      </c>
+      <c r="J746" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="K746" t="n">
+        <v>3.182</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K746"/>
+  <dimension ref="A1:K747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26571,6 +26571,41 @@
         <v>3.182</v>
       </c>
     </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B747" t="n">
+        <v>2.194</v>
+      </c>
+      <c r="C747" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="D747" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="E747" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F747" t="n">
+        <v>3.2505</v>
+      </c>
+      <c r="G747" t="n">
+        <v>3.1883</v>
+      </c>
+      <c r="H747" t="n">
+        <v>2.9647</v>
+      </c>
+      <c r="I747" t="n">
+        <v>2.9145</v>
+      </c>
+      <c r="J747" t="n">
+        <v>2.842</v>
+      </c>
+      <c r="K747" t="n">
+        <v>3.114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K747"/>
+  <dimension ref="A1:K749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26606,6 +26606,76 @@
         <v>3.114</v>
       </c>
     </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B748" t="n">
+        <v>2.2345</v>
+      </c>
+      <c r="C748" t="n">
+        <v>2.5861</v>
+      </c>
+      <c r="D748" t="n">
+        <v>3.0509</v>
+      </c>
+      <c r="E748" t="n">
+        <v>3.2526</v>
+      </c>
+      <c r="F748" t="n">
+        <v>3.2567</v>
+      </c>
+      <c r="G748" t="n">
+        <v>3.1938</v>
+      </c>
+      <c r="H748" t="n">
+        <v>2.9699</v>
+      </c>
+      <c r="I748" t="n">
+        <v>2.917</v>
+      </c>
+      <c r="J748" t="n">
+        <v>2.842</v>
+      </c>
+      <c r="K748" t="n">
+        <v>3.111</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B749" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="C749" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="D749" t="n">
+        <v>3.1068</v>
+      </c>
+      <c r="E749" t="n">
+        <v>3.228</v>
+      </c>
+      <c r="F749" t="n">
+        <v>3.1946</v>
+      </c>
+      <c r="G749" t="n">
+        <v>3.1222</v>
+      </c>
+      <c r="H749" t="n">
+        <v>2.9066</v>
+      </c>
+      <c r="I749" t="n">
+        <v>2.8617</v>
+      </c>
+      <c r="J749" t="n">
+        <v>2.793</v>
+      </c>
+      <c r="K749" t="n">
+        <v>3.104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K749"/>
+  <dimension ref="A1:K750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26676,6 +26676,41 @@
         <v>3.104</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B750" t="n">
+        <v>2.1808</v>
+      </c>
+      <c r="C750" t="n">
+        <v>2.6692</v>
+      </c>
+      <c r="D750" t="n">
+        <v>3.1016</v>
+      </c>
+      <c r="E750" t="n">
+        <v>3.2602</v>
+      </c>
+      <c r="F750" t="n">
+        <v>3.272</v>
+      </c>
+      <c r="G750" t="n">
+        <v>3.2159</v>
+      </c>
+      <c r="H750" t="n">
+        <v>2.9701</v>
+      </c>
+      <c r="I750" t="n">
+        <v>2.9071</v>
+      </c>
+      <c r="J750" t="n">
+        <v>2.819</v>
+      </c>
+      <c r="K750" t="n">
+        <v>3.103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K750"/>
+  <dimension ref="A1:K751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26711,6 +26711,41 @@
         <v>3.103</v>
       </c>
     </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B751" t="n">
+        <v>2.1782</v>
+      </c>
+      <c r="C751" t="n">
+        <v>2.6792</v>
+      </c>
+      <c r="D751" t="n">
+        <v>3.1225</v>
+      </c>
+      <c r="E751" t="n">
+        <v>3.2706</v>
+      </c>
+      <c r="F751" t="n">
+        <v>3.287</v>
+      </c>
+      <c r="G751" t="n">
+        <v>3.2796</v>
+      </c>
+      <c r="H751" t="n">
+        <v>3.0494</v>
+      </c>
+      <c r="I751" t="n">
+        <v>2.9908</v>
+      </c>
+      <c r="J751" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K751" t="n">
+        <v>3.155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K751"/>
+  <dimension ref="A1:K752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26652,7 +26652,7 @@
         <v>2.588</v>
       </c>
       <c r="D749" t="n">
-        <v>3.1068</v>
+        <v>3.074</v>
       </c>
       <c r="E749" t="n">
         <v>3.228</v>
@@ -26681,34 +26681,34 @@
         <v>44789</v>
       </c>
       <c r="B750" t="n">
-        <v>2.1808</v>
+        <v>2.199</v>
       </c>
       <c r="C750" t="n">
-        <v>2.6692</v>
+        <v>2.661</v>
       </c>
       <c r="D750" t="n">
-        <v>3.1016</v>
+        <v>3.115</v>
       </c>
       <c r="E750" t="n">
-        <v>3.2602</v>
+        <v>3.263</v>
       </c>
       <c r="F750" t="n">
-        <v>3.272</v>
+        <v>3.2678</v>
       </c>
       <c r="G750" t="n">
-        <v>3.2159</v>
+        <v>3.2104</v>
       </c>
       <c r="H750" t="n">
-        <v>2.9701</v>
+        <v>2.9615</v>
       </c>
       <c r="I750" t="n">
-        <v>2.9071</v>
+        <v>2.8996</v>
       </c>
       <c r="J750" t="n">
-        <v>2.819</v>
+        <v>2.808</v>
       </c>
       <c r="K750" t="n">
-        <v>3.103</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="751">
@@ -26716,34 +26716,69 @@
         <v>44790</v>
       </c>
       <c r="B751" t="n">
-        <v>2.1782</v>
+        <v>2.143</v>
       </c>
       <c r="C751" t="n">
-        <v>2.6792</v>
+        <v>2.641</v>
       </c>
       <c r="D751" t="n">
-        <v>3.1225</v>
+        <v>3.122</v>
       </c>
       <c r="E751" t="n">
-        <v>3.2706</v>
+        <v>3.281</v>
       </c>
       <c r="F751" t="n">
-        <v>3.287</v>
+        <v>3.2849</v>
       </c>
       <c r="G751" t="n">
         <v>3.2796</v>
       </c>
       <c r="H751" t="n">
-        <v>3.0494</v>
+        <v>3.0529</v>
       </c>
       <c r="I751" t="n">
         <v>2.9908</v>
       </c>
       <c r="J751" t="n">
-        <v>2.9</v>
+        <v>2.902</v>
       </c>
       <c r="K751" t="n">
         <v>3.155</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B752" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="C752" t="n">
+        <v>2.669</v>
+      </c>
+      <c r="D752" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E752" t="n">
+        <v>3.228</v>
+      </c>
+      <c r="F752" t="n">
+        <v>3.2078</v>
+      </c>
+      <c r="G752" t="n">
+        <v>3.2327</v>
+      </c>
+      <c r="H752" t="n">
+        <v>3.0323</v>
+      </c>
+      <c r="I752" t="n">
+        <v>2.9782</v>
+      </c>
+      <c r="J752" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="K752" t="n">
+        <v>3.143</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K752"/>
+  <dimension ref="A1:K753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26781,6 +26781,41 @@
         <v>3.143</v>
       </c>
     </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B753" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="C753" t="n">
+        <v>2.686</v>
+      </c>
+      <c r="D753" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="E753" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="F753" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="G753" t="n">
+        <v>3.269</v>
+      </c>
+      <c r="H753" t="n">
+        <v>3.0967</v>
+      </c>
+      <c r="I753" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="J753" t="n">
+        <v>2.976</v>
+      </c>
+      <c r="K753" t="n">
+        <v>3.215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K753"/>
+  <dimension ref="A1:K755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26816,6 +26816,76 @@
         <v>3.215</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B754" t="n">
+        <v>2.2294</v>
+      </c>
+      <c r="C754" t="n">
+        <v>2.7247</v>
+      </c>
+      <c r="D754" t="n">
+        <v>3.1502</v>
+      </c>
+      <c r="E754" t="n">
+        <v>3.2618</v>
+      </c>
+      <c r="F754" t="n">
+        <v>3.2611</v>
+      </c>
+      <c r="G754" t="n">
+        <v>3.2884</v>
+      </c>
+      <c r="H754" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="I754" t="n">
+        <v>3.0729</v>
+      </c>
+      <c r="J754" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="K754" t="n">
+        <v>3.229</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B755" t="n">
+        <v>2.209</v>
+      </c>
+      <c r="C755" t="n">
+        <v>2.755</v>
+      </c>
+      <c r="D755" t="n">
+        <v>3.2351</v>
+      </c>
+      <c r="E755" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="F755" t="n">
+        <v>3.3161</v>
+      </c>
+      <c r="G755" t="n">
+        <v>3.3554</v>
+      </c>
+      <c r="H755" t="n">
+        <v>3.1646</v>
+      </c>
+      <c r="I755" t="n">
+        <v>3.1166</v>
+      </c>
+      <c r="J755" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="K755" t="n">
+        <v>3.231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K755"/>
+  <dimension ref="A1:K756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26886,6 +26886,41 @@
         <v>3.231</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B756" t="n">
+        <v>2.2037</v>
+      </c>
+      <c r="C756" t="n">
+        <v>2.8133</v>
+      </c>
+      <c r="D756" t="n">
+        <v>3.2299</v>
+      </c>
+      <c r="E756" t="n">
+        <v>3.2879</v>
+      </c>
+      <c r="F756" t="n">
+        <v>3.3273</v>
+      </c>
+      <c r="G756" t="n">
+        <v>3.3444</v>
+      </c>
+      <c r="H756" t="n">
+        <v>3.1736</v>
+      </c>
+      <c r="I756" t="n">
+        <v>3.1373</v>
+      </c>
+      <c r="J756" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="K756" t="n">
+        <v>3.265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K756"/>
+  <dimension ref="A1:K757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26862,7 +26862,7 @@
         <v>2.755</v>
       </c>
       <c r="D755" t="n">
-        <v>3.2351</v>
+        <v>3.192</v>
       </c>
       <c r="E755" t="n">
         <v>3.315</v>
@@ -26891,34 +26891,69 @@
         <v>44796</v>
       </c>
       <c r="B756" t="n">
-        <v>2.2037</v>
+        <v>2.173</v>
       </c>
       <c r="C756" t="n">
-        <v>2.8133</v>
+        <v>2.769</v>
       </c>
       <c r="D756" t="n">
-        <v>3.2299</v>
+        <v>3.188</v>
       </c>
       <c r="E756" t="n">
-        <v>3.2879</v>
+        <v>3.288</v>
       </c>
       <c r="F756" t="n">
-        <v>3.3273</v>
+        <v>3.3018</v>
       </c>
       <c r="G756" t="n">
-        <v>3.3444</v>
+        <v>3.3472</v>
       </c>
       <c r="H756" t="n">
-        <v>3.1736</v>
+        <v>3.1788</v>
       </c>
       <c r="I756" t="n">
-        <v>3.1373</v>
+        <v>3.145</v>
       </c>
       <c r="J756" t="n">
-        <v>3.059</v>
+        <v>3.057</v>
       </c>
       <c r="K756" t="n">
-        <v>3.265</v>
+        <v>3.263</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B757" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="C757" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D757" t="n">
+        <v>3.214</v>
+      </c>
+      <c r="E757" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F757" t="n">
+        <v>3.4028</v>
+      </c>
+      <c r="G757" t="n">
+        <v>3.4033</v>
+      </c>
+      <c r="H757" t="n">
+        <v>3.2366</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3.2019</v>
+      </c>
+      <c r="J757" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="K757" t="n">
+        <v>3.316</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K757"/>
+  <dimension ref="A1:K758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26956,6 +26956,41 @@
         <v>3.316</v>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B758" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="C758" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D758" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="E758" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F758" t="n">
+        <v>3.3742</v>
+      </c>
+      <c r="G758" t="n">
+        <v>3.3699</v>
+      </c>
+      <c r="H758" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="I758" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J758" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="K758" t="n">
+        <v>3.241</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K758"/>
+  <dimension ref="A1:K759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26991,6 +26991,41 @@
         <v>3.241</v>
       </c>
     </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B759" t="n">
+        <v>2.346</v>
+      </c>
+      <c r="C759" t="n">
+        <v>2.838</v>
+      </c>
+      <c r="D759" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="E759" t="n">
+        <v>3.359</v>
+      </c>
+      <c r="F759" t="n">
+        <v>3.3824</v>
+      </c>
+      <c r="G759" t="n">
+        <v>3.3817</v>
+      </c>
+      <c r="H759" t="n">
+        <v>3.1914</v>
+      </c>
+      <c r="I759" t="n">
+        <v>3.1325</v>
+      </c>
+      <c r="J759" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K759" t="n">
+        <v>3.189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K759"/>
+  <dimension ref="A1:K761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27026,6 +27026,76 @@
         <v>3.189</v>
       </c>
     </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B760" t="n">
+        <v>2.3922</v>
+      </c>
+      <c r="C760" t="n">
+        <v>2.8739</v>
+      </c>
+      <c r="D760" t="n">
+        <v>3.2678</v>
+      </c>
+      <c r="E760" t="n">
+        <v>3.3426</v>
+      </c>
+      <c r="F760" t="n">
+        <v>3.4375</v>
+      </c>
+      <c r="G760" t="n">
+        <v>3.4407</v>
+      </c>
+      <c r="H760" t="n">
+        <v>3.2444</v>
+      </c>
+      <c r="I760" t="n">
+        <v>3.1827</v>
+      </c>
+      <c r="J760" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="K760" t="n">
+        <v>3.216</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B761" t="n">
+        <v>2.384</v>
+      </c>
+      <c r="C761" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="D761" t="n">
+        <v>3.3397</v>
+      </c>
+      <c r="E761" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="F761" t="n">
+        <v>3.4314</v>
+      </c>
+      <c r="G761" t="n">
+        <v>3.4494</v>
+      </c>
+      <c r="H761" t="n">
+        <v>3.2615</v>
+      </c>
+      <c r="I761" t="n">
+        <v>3.2179</v>
+      </c>
+      <c r="J761" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="K761" t="n">
+        <v>3.247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K761"/>
+  <dimension ref="A1:K762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27069,10 +27069,10 @@
         <v>2.384</v>
       </c>
       <c r="C761" t="n">
-        <v>2.947</v>
+        <v>2.886</v>
       </c>
       <c r="D761" t="n">
-        <v>3.3397</v>
+        <v>3.32</v>
       </c>
       <c r="E761" t="n">
         <v>3.414</v>
@@ -27094,6 +27094,41 @@
       </c>
       <c r="K761" t="n">
         <v>3.247</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B762" t="n">
+        <v>2.346</v>
+      </c>
+      <c r="C762" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="D762" t="n">
+        <v>3.345</v>
+      </c>
+      <c r="E762" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="F762" t="n">
+        <v>3.4579</v>
+      </c>
+      <c r="G762" t="n">
+        <v>3.4694</v>
+      </c>
+      <c r="H762" t="n">
+        <v>3.2718</v>
+      </c>
+      <c r="I762" t="n">
+        <v>3.2179</v>
+      </c>
+      <c r="J762" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="K762" t="n">
+        <v>3.226</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K762"/>
+  <dimension ref="A1:K763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27131,6 +27131,41 @@
         <v>3.226</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B763" t="n">
+        <v>2.336</v>
+      </c>
+      <c r="C763" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="D763" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E763" t="n">
+        <v>3.483</v>
+      </c>
+      <c r="F763" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="G763" t="n">
+        <v>3.5177</v>
+      </c>
+      <c r="H763" t="n">
+        <v>3.3526</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3.3115</v>
+      </c>
+      <c r="J763" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="K763" t="n">
+        <v>3.299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K763"/>
+  <dimension ref="A1:K764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27166,6 +27166,41 @@
         <v>3.299</v>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B764" t="n">
+        <v>2.5251</v>
+      </c>
+      <c r="C764" t="n">
+        <v>2.9772</v>
+      </c>
+      <c r="D764" t="n">
+        <v>3.4075</v>
+      </c>
+      <c r="E764" t="n">
+        <v>3.5438</v>
+      </c>
+      <c r="F764" t="n">
+        <v>3.5117</v>
+      </c>
+      <c r="G764" t="n">
+        <v>3.5435</v>
+      </c>
+      <c r="H764" t="n">
+        <v>3.3992</v>
+      </c>
+      <c r="I764" t="n">
+        <v>3.3649</v>
+      </c>
+      <c r="J764" t="n">
+        <v>3.263</v>
+      </c>
+      <c r="K764" t="n">
+        <v>3.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K764"/>
+  <dimension ref="A1:K765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26996,16 +26996,16 @@
         <v>44799</v>
       </c>
       <c r="B759" t="n">
-        <v>2.346</v>
+        <v>2.3744</v>
       </c>
       <c r="C759" t="n">
-        <v>2.838</v>
+        <v>2.8405</v>
       </c>
       <c r="D759" t="n">
-        <v>3.226</v>
+        <v>3.2312</v>
       </c>
       <c r="E759" t="n">
-        <v>3.359</v>
+        <v>3.3665</v>
       </c>
       <c r="F759" t="n">
         <v>3.3824</v>
@@ -27199,6 +27199,41 @@
       </c>
       <c r="K764" t="n">
         <v>3.373</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B765" t="n">
+        <v>2.4659</v>
+      </c>
+      <c r="C765" t="n">
+        <v>2.9197</v>
+      </c>
+      <c r="D765" t="n">
+        <v>3.3565</v>
+      </c>
+      <c r="E765" t="n">
+        <v>3.4551</v>
+      </c>
+      <c r="F765" t="n">
+        <v>3.3955</v>
+      </c>
+      <c r="G765" t="n">
+        <v>3.4371</v>
+      </c>
+      <c r="H765" t="n">
+        <v>3.2979</v>
+      </c>
+      <c r="I765" t="n">
+        <v>3.2787</v>
+      </c>
+      <c r="J765" t="n">
+        <v>3.195</v>
+      </c>
+      <c r="K765" t="n">
+        <v>3.348</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -27171,34 +27171,34 @@
         <v>44805</v>
       </c>
       <c r="B764" t="n">
-        <v>2.5251</v>
+        <v>2.308</v>
       </c>
       <c r="C764" t="n">
-        <v>2.9772</v>
+        <v>2.954</v>
       </c>
       <c r="D764" t="n">
-        <v>3.4075</v>
+        <v>3.373</v>
       </c>
       <c r="E764" t="n">
-        <v>3.5438</v>
+        <v>3.509</v>
       </c>
       <c r="F764" t="n">
-        <v>3.5117</v>
+        <v>3.5178</v>
       </c>
       <c r="G764" t="n">
-        <v>3.5435</v>
+        <v>3.5491</v>
       </c>
       <c r="H764" t="n">
-        <v>3.3992</v>
+        <v>3.4044</v>
       </c>
       <c r="I764" t="n">
-        <v>3.3649</v>
+        <v>3.3675</v>
       </c>
       <c r="J764" t="n">
-        <v>3.263</v>
+        <v>3.259</v>
       </c>
       <c r="K764" t="n">
-        <v>3.373</v>
+        <v>3.364</v>
       </c>
     </row>
     <row r="765">
@@ -27206,16 +27206,16 @@
         <v>44806</v>
       </c>
       <c r="B765" t="n">
-        <v>2.4659</v>
+        <v>2.458</v>
       </c>
       <c r="C765" t="n">
-        <v>2.9197</v>
+        <v>2.909</v>
       </c>
       <c r="D765" t="n">
-        <v>3.3565</v>
+        <v>3.351</v>
       </c>
       <c r="E765" t="n">
-        <v>3.4551</v>
+        <v>3.466</v>
       </c>
       <c r="F765" t="n">
         <v>3.3955</v>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K765"/>
+  <dimension ref="A1:K766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27236,6 +27236,41 @@
         <v>3.348</v>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B766" t="n">
+        <v>2.4531</v>
+      </c>
+      <c r="C766" t="n">
+        <v>2.9222</v>
+      </c>
+      <c r="D766" t="n">
+        <v>3.3539</v>
+      </c>
+      <c r="E766" t="n">
+        <v>3.4471</v>
+      </c>
+      <c r="F766" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="G766" t="n">
+        <v>3.4768</v>
+      </c>
+      <c r="H766" t="n">
+        <v>3.3358</v>
+      </c>
+      <c r="I766" t="n">
+        <v>3.3117</v>
+      </c>
+      <c r="J766" t="n">
+        <v>3.223</v>
+      </c>
+      <c r="K766" t="n">
+        <v>3.367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K766"/>
+  <dimension ref="A1:K767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27271,6 +27271,41 @@
         <v>3.367</v>
       </c>
     </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B767" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="C767" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="D767" t="n">
+        <v>3.4288</v>
+      </c>
+      <c r="E767" t="n">
+        <v>3.6082</v>
+      </c>
+      <c r="F767" t="n">
+        <v>3.5071</v>
+      </c>
+      <c r="G767" t="n">
+        <v>3.5737</v>
+      </c>
+      <c r="H767" t="n">
+        <v>3.4536</v>
+      </c>
+      <c r="I767" t="n">
+        <v>3.4331</v>
+      </c>
+      <c r="J767" t="n">
+        <v>3.351</v>
+      </c>
+      <c r="K767" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K767"/>
+  <dimension ref="A1:K769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27279,13 +27279,13 @@
         <v>2.382</v>
       </c>
       <c r="C767" t="n">
-        <v>3.024</v>
+        <v>2.935</v>
       </c>
       <c r="D767" t="n">
-        <v>3.4288</v>
+        <v>3.393</v>
       </c>
       <c r="E767" t="n">
-        <v>3.6082</v>
+        <v>3.521</v>
       </c>
       <c r="F767" t="n">
         <v>3.5071</v>
@@ -27304,6 +27304,76 @@
       </c>
       <c r="K767" t="n">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B768" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="C768" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="D768" t="n">
+        <v>3.445</v>
+      </c>
+      <c r="E768" t="n">
+        <v>3.608</v>
+      </c>
+      <c r="F768" t="n">
+        <v>3.4392</v>
+      </c>
+      <c r="G768" t="n">
+        <v>3.4887</v>
+      </c>
+      <c r="H768" t="n">
+        <v>3.3602</v>
+      </c>
+      <c r="I768" t="n">
+        <v>3.3475</v>
+      </c>
+      <c r="J768" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="K768" t="n">
+        <v>3.415</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B769" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="C769" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="D769" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="E769" t="n">
+        <v>3.597</v>
+      </c>
+      <c r="F769" t="n">
+        <v>3.5118</v>
+      </c>
+      <c r="G769" t="n">
+        <v>3.5687</v>
+      </c>
+      <c r="H769" t="n">
+        <v>3.4278</v>
+      </c>
+      <c r="I769" t="n">
+        <v>3.4089</v>
+      </c>
+      <c r="J769" t="n">
+        <v>3.323</v>
+      </c>
+      <c r="K769" t="n">
+        <v>3.477</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K769"/>
+  <dimension ref="A1:K770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27376,6 +27376,41 @@
         <v>3.477</v>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B770" t="n">
+        <v>2.552</v>
+      </c>
+      <c r="C770" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="D770" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="E770" t="n">
+        <v>3.663</v>
+      </c>
+      <c r="F770" t="n">
+        <v>3.5627</v>
+      </c>
+      <c r="G770" t="n">
+        <v>3.6013</v>
+      </c>
+      <c r="H770" t="n">
+        <v>3.437</v>
+      </c>
+      <c r="I770" t="n">
+        <v>3.4041</v>
+      </c>
+      <c r="J770" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="K770" t="n">
+        <v>3.449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K770"/>
+  <dimension ref="A1:K773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27411,6 +27411,111 @@
         <v>3.449</v>
       </c>
     </row>
+    <row r="771">
+      <c r="A771" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B771" t="n">
+        <v>2.5729</v>
+      </c>
+      <c r="C771" t="n">
+        <v>3.0845</v>
+      </c>
+      <c r="D771" t="n">
+        <v>3.5508</v>
+      </c>
+      <c r="E771" t="n">
+        <v>3.6954</v>
+      </c>
+      <c r="F771" t="n">
+        <v>3.5627</v>
+      </c>
+      <c r="G771" t="n">
+        <v>3.6013</v>
+      </c>
+      <c r="H771" t="n">
+        <v>3.437</v>
+      </c>
+      <c r="I771" t="n">
+        <v>3.4066</v>
+      </c>
+      <c r="J771" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="K771" t="n">
+        <v>3.452</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="C772" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D772" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E772" t="n">
+        <v>3.668</v>
+      </c>
+      <c r="F772" t="n">
+        <v>3.5756</v>
+      </c>
+      <c r="G772" t="n">
+        <v>3.6131</v>
+      </c>
+      <c r="H772" t="n">
+        <v>3.4528</v>
+      </c>
+      <c r="I772" t="n">
+        <v>3.4298</v>
+      </c>
+      <c r="J772" t="n">
+        <v>3.358</v>
+      </c>
+      <c r="K772" t="n">
+        <v>3.509</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="C773" t="n">
+        <v>3.263</v>
+      </c>
+      <c r="D773" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E773" t="n">
+        <v>3.931</v>
+      </c>
+      <c r="F773" t="n">
+        <v>3.7455</v>
+      </c>
+      <c r="G773" t="n">
+        <v>3.7528</v>
+      </c>
+      <c r="H773" t="n">
+        <v>3.577</v>
+      </c>
+      <c r="I773" t="n">
+        <v>3.5202</v>
+      </c>
+      <c r="J773" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="K773" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_United States.xlsx
+++ b/Bonds_United States.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K773"/>
+  <dimension ref="A1:K774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27516,6 +27516,41 @@
         <v>3.49</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="C774" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="D774" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="E774" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="F774" t="n">
+        <v>3.7881</v>
+      </c>
+      <c r="G774" t="n">
+        <v>3.7891</v>
+      </c>
+      <c r="H774" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I774" t="n">
+        <v>3.528</v>
+      </c>
+      <c r="J774" t="n">
+        <v>3.404</v>
+      </c>
+      <c r="K774" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
